--- a/Översikt VALDEMARSVIK.xlsx
+++ b/Översikt VALDEMARSVIK.xlsx
@@ -575,7 +575,7 @@
         <v>45569</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>45238</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>45569</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>45253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>45926.62841435185</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         <v>45699.88070601852</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>44712</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44571</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>45609.70267361111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         <v>45740.55563657408</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>46018.65306712963</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>44770</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         <v>44293</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         <v>45463</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>45331</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>44994</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>45043</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>44952</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>44883</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>45790</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         <v>44244</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2413,7 +2413,7 @@
         <v>44410</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         <v>44378</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         <v>44613.79927083333</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>44749.70993055555</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>44687</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         <v>44869.4808449074</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>44852</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         <v>44417</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>44417</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2926,7 +2926,7 @@
         <v>44281.03122685185</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>44536</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3040,7 +3040,7 @@
         <v>44357</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
         <v>44613</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3154,7 +3154,7 @@
         <v>44531.66954861111</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3211,7 +3211,7 @@
         <v>44278.7549537037</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         <v>44726</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3325,7 +3325,7 @@
         <v>44603.67851851852</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3382,7 +3382,7 @@
         <v>44531</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3439,7 +3439,7 @@
         <v>44881.90741898148</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3496,7 +3496,7 @@
         <v>44287</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
         <v>44362</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>44273</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>44326</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>44281</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>44613.80142361111</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>44613.69971064815</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         <v>44636</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>44564.54900462963</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
         <v>44658</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         <v>44573.57579861111</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         <v>44656</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4180,7 +4180,7 @@
         <v>44463</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>44315</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>44629</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>44417</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>44573</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>44712</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4527,7 +4527,7 @@
         <v>44593</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4584,7 +4584,7 @@
         <v>44882</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>44881.90604166667</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>44454</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>44417</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>44308</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>44322</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>44603</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>44480.65591435185</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>44487</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>44603.67640046297</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>44603.70393518519</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         <v>44256</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>44728.68993055556</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>44279.75896990741</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>44371</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5454,7 +5454,7 @@
         <v>44573</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5511,7 +5511,7 @@
         <v>44753</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         <v>45687.62237268518</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>45601.42112268518</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>45597.58349537037</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5744,7 +5744,7 @@
         <v>44607.71590277777</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5801,7 +5801,7 @@
         <v>45090.31920138889</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>45590.39403935185</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>45540.64366898148</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>45433.60840277778</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6029,7 +6029,7 @@
         <v>45685.7069212963</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>44690</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
         <v>44970</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
         <v>45148.63856481481</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6257,7 +6257,7 @@
         <v>45667.48078703704</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6314,7 +6314,7 @@
         <v>45667.49322916667</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6371,7 +6371,7 @@
         <v>45667.56173611111</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6428,7 +6428,7 @@
         <v>44601.54333333333</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6485,7 +6485,7 @@
         <v>44957</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>45254</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6599,7 +6599,7 @@
         <v>45590.40115740741</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6656,7 +6656,7 @@
         <v>44945</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6713,7 +6713,7 @@
         <v>45020.56628472222</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6770,7 +6770,7 @@
         <v>45189</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6827,7 +6827,7 @@
         <v>45028</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
         <v>44749.69370370371</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6941,7 +6941,7 @@
         <v>45344</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6998,7 +6998,7 @@
         <v>45761.47571759259</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7055,7 +7055,7 @@
         <v>44949.35385416666</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>45719.6859375</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
         <v>45176.67278935185</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7226,7 +7226,7 @@
         <v>45336.62203703704</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>44454</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7340,7 +7340,7 @@
         <v>44573</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         <v>44573</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7454,7 +7454,7 @@
         <v>45581</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7511,7 +7511,7 @@
         <v>45761.47806712963</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7568,7 +7568,7 @@
         <v>45568</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7625,7 +7625,7 @@
         <v>45090.31699074074</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7682,7 +7682,7 @@
         <v>45202</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7739,7 +7739,7 @@
         <v>44833</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7796,7 +7796,7 @@
         <v>45803.60685185185</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7853,7 +7853,7 @@
         <v>45310.56167824074</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7910,7 +7910,7 @@
         <v>45204.59734953703</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7967,7 +7967,7 @@
         <v>45183</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8024,7 +8024,7 @@
         <v>45183</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8081,7 +8081,7 @@
         <v>45271</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
         <v>45800.29532407408</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         <v>44592.57141203704</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         <v>45628.54787037037</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8314,7 +8314,7 @@
         <v>45093</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         <v>45818.46033564815</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         <v>45890.64196759259</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         <v>45890.64568287037</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         <v>45890.64841435185</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8599,7 +8599,7 @@
         <v>45890.65094907407</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         <v>45890.63361111111</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>45891</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>45667.50155092592</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>45667.56914351852</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>45890.66296296296</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>45891</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>45742.44043981482</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>45897.39159722222</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>45782</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9169,7 +9169,7 @@
         <v>45897.44991898148</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>45158</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>44593</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>45901.56068287037</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>45901</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>44463</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>45733</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9573,7 +9573,7 @@
         <v>45740</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9650,7 +9650,7 @@
         <v>45902.71516203704</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9707,7 +9707,7 @@
         <v>45902.71751157408</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9764,7 +9764,7 @@
         <v>45902.72295138889</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9821,7 +9821,7 @@
         <v>45902.72454861111</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>45238.85070601852</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>45902.70725694444</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>45902.7112037037</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
         <v>45902.71890046296</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10106,7 +10106,7 @@
         <v>45902.71278935186</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10163,7 +10163,7 @@
         <v>45902.72226851852</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10220,7 +10220,7 @@
         <v>45902.72586805555</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10277,7 +10277,7 @@
         <v>44974</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10334,7 +10334,7 @@
         <v>45323</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10391,7 +10391,7 @@
         <v>45036</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10448,7 +10448,7 @@
         <v>45908.48502314815</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10505,7 +10505,7 @@
         <v>45908.48112268518</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10562,7 +10562,7 @@
         <v>44799.58418981481</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10619,7 +10619,7 @@
         <v>45667.471875</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10676,7 +10676,7 @@
         <v>44894</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10733,7 +10733,7 @@
         <v>44587</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10790,7 +10790,7 @@
         <v>44749</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10847,7 +10847,7 @@
         <v>44417</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10904,7 +10904,7 @@
         <v>45404.35048611111</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10961,7 +10961,7 @@
         <v>45624.6911574074</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11018,7 +11018,7 @@
         <v>45667.58902777778</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11075,7 +11075,7 @@
         <v>44949</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>45924.46423611111</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11189,7 +11189,7 @@
         <v>45926.64467592593</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11246,7 +11246,7 @@
         <v>45926.64569444444</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11303,7 +11303,7 @@
         <v>45601.62434027778</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11360,7 +11360,7 @@
         <v>45926.63296296296</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11417,7 +11417,7 @@
         <v>45926.62104166667</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11474,7 +11474,7 @@
         <v>45929.46962962963</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11531,7 +11531,7 @@
         <v>45357.30267361111</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11588,7 +11588,7 @@
         <v>45929.46505787037</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11645,7 +11645,7 @@
         <v>45926</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11702,7 +11702,7 @@
         <v>45926.625</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11759,7 +11759,7 @@
         <v>45581</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11816,7 +11816,7 @@
         <v>45581</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11873,7 +11873,7 @@
         <v>45035</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11935,7 +11935,7 @@
         <v>44937</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11992,7 +11992,7 @@
         <v>44937.72628472222</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12049,7 +12049,7 @@
         <v>45258.70151620371</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12106,7 +12106,7 @@
         <v>44965.57659722222</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         <v>45934.78538194444</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12220,7 +12220,7 @@
         <v>45840.71472222222</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12277,7 +12277,7 @@
         <v>44883.62292824074</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>45176</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>45205.41054398148</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12453,7 +12453,7 @@
         <v>44979.48650462963</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         <v>45099.60927083333</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12567,7 +12567,7 @@
         <v>44942</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12624,7 +12624,7 @@
         <v>45944.35180555555</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12681,7 +12681,7 @@
         <v>45354</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12738,7 +12738,7 @@
         <v>44896</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12795,7 +12795,7 @@
         <v>45946.50857638889</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12852,7 +12852,7 @@
         <v>45950.58934027778</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12909,7 +12909,7 @@
         <v>44491.40493055555</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12966,7 +12966,7 @@
         <v>45093</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13023,7 +13023,7 @@
         <v>45093</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13080,7 +13080,7 @@
         <v>45846.3959375</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13137,7 +13137,7 @@
         <v>44585</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13194,7 +13194,7 @@
         <v>44454.49141203704</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13251,7 +13251,7 @@
         <v>45790.56094907408</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13308,7 +13308,7 @@
         <v>45699.88890046296</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13365,7 +13365,7 @@
         <v>44903</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13422,7 +13422,7 @@
         <v>44985</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13479,7 +13479,7 @@
         <v>45481.61375</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13536,7 +13536,7 @@
         <v>45228.75215277778</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13593,7 +13593,7 @@
         <v>45167</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13650,7 +13650,7 @@
         <v>44916</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13707,7 +13707,7 @@
         <v>45876</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13764,7 +13764,7 @@
         <v>44897</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13821,7 +13821,7 @@
         <v>44463</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13883,7 +13883,7 @@
         <v>45170</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13940,7 +13940,7 @@
         <v>45761.68189814815</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13997,7 +13997,7 @@
         <v>45411</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14054,7 +14054,7 @@
         <v>45685.3190625</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>45685.3234837963</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14168,7 +14168,7 @@
         <v>45632.55439814815</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14225,7 +14225,7 @@
         <v>45973.68703703704</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14282,7 +14282,7 @@
         <v>45972.46515046297</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14339,7 +14339,7 @@
         <v>44852</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14396,7 +14396,7 @@
         <v>45215.67923611111</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14453,7 +14453,7 @@
         <v>45887.65681712963</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>45352.4880787037</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>46019.56672453704</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>46020.3633912037</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>46020.84125</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14738,7 +14738,7 @@
         <v>45758.44194444444</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
         <v>46020.3581712963</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14852,7 +14852,7 @@
         <v>46018.66457175926</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>46019.556875</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14966,7 +14966,7 @@
         <v>46019.55893518519</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15023,7 +15023,7 @@
         <v>46020.83644675926</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15080,7 +15080,7 @@
         <v>45258.70559027778</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>44980</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15194,7 +15194,7 @@
         <v>46027.46884259259</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15251,7 +15251,7 @@
         <v>44587</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15308,7 +15308,7 @@
         <v>46027.49337962963</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15365,7 +15365,7 @@
         <v>45569.31166666667</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15422,7 +15422,7 @@
         <v>44725</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15479,7 +15479,7 @@
         <v>46027.50201388889</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15536,7 +15536,7 @@
         <v>45986.62471064815</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15593,7 +15593,7 @@
         <v>45986.63265046296</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15650,7 +15650,7 @@
         <v>46029.46594907407</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15712,7 +15712,7 @@
         <v>45986.62858796296</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15769,7 +15769,7 @@
         <v>45986.6403125</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         <v>44321</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15883,7 +15883,7 @@
         <v>45698.95604166666</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15940,7 +15940,7 @@
         <v>45989.58854166666</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16002,7 +16002,7 @@
         <v>45581</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16059,7 +16059,7 @@
         <v>45992.67606481481</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16116,7 +16116,7 @@
         <v>45565.84452546296</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16173,7 +16173,7 @@
         <v>45040</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16235,7 +16235,7 @@
         <v>45992.67703703704</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16292,7 +16292,7 @@
         <v>45708.38859953704</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16349,7 +16349,7 @@
         <v>44728</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16406,7 +16406,7 @@
         <v>45339</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16463,7 +16463,7 @@
         <v>44652.90847222223</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16520,7 +16520,7 @@
         <v>45999.59362268518</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16582,7 +16582,7 @@
         <v>45036</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16639,7 +16639,7 @@
         <v>45999.60096064815</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16701,7 +16701,7 @@
         <v>45743.5756712963</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>46000</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16815,7 +16815,7 @@
         <v>45740</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>45740</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16929,7 +16929,7 @@
         <v>44970</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16986,7 +16986,7 @@
         <v>46027.44552083333</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17043,7 +17043,7 @@
         <v>44922</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17100,7 +17100,7 @@
         <v>45195</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17157,7 +17157,7 @@
         <v>44972</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17214,7 +17214,7 @@
         <v>45698.96422453703</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>46006.59824074074</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17328,7 +17328,7 @@
         <v>46049.33</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17385,7 +17385,7 @@
         <v>46006.5808912037</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17442,7 +17442,7 @@
         <v>44883</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17499,7 +17499,7 @@
         <v>46006.58912037037</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17556,7 +17556,7 @@
         <v>46006.59519675926</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>45433.5965625</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17670,7 +17670,7 @@
         <v>45183.32618055555</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17727,7 +17727,7 @@
         <v>45628.54432870371</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17784,7 +17784,7 @@
         <v>45601.62701388889</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17841,7 +17841,7 @@
         <v>44777</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17898,7 +17898,7 @@
         <v>44899.50475694444</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17955,7 +17955,7 @@
         <v>46055</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18012,7 +18012,7 @@
         <v>45404.60186342592</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18069,7 +18069,7 @@
         <v>45215.49336805556</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18126,7 +18126,7 @@
         <v>46055</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18183,7 +18183,7 @@
         <v>46055</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18240,7 +18240,7 @@
         <v>44953</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18297,7 +18297,7 @@
         <v>44830</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18354,7 +18354,7 @@
         <v>45257</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18411,7 +18411,7 @@
         <v>46014.64821759259</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18468,7 +18468,7 @@
         <v>44463</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18530,7 +18530,7 @@
         <v>44613.69353009259</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18587,7 +18587,7 @@
         <v>45569.32538194444</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>45569.32959490741</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18711,7 +18711,7 @@
         <v>45063.3709375</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18768,7 +18768,7 @@
         <v>45394.42204861111</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18825,7 +18825,7 @@
         <v>45667.57810185185</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18882,7 +18882,7 @@
         <v>45750.58451388889</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18939,7 +18939,7 @@
         <v>45758.44706018519</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18996,7 +18996,7 @@
         <v>45133</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19053,7 +19053,7 @@
         <v>45063</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19110,7 +19110,7 @@
         <v>45546.39056712963</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19167,7 +19167,7 @@
         <v>45546.42262731482</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19224,7 +19224,7 @@
         <v>45719.61589120371</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19281,7 +19281,7 @@
         <v>44575</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19338,7 +19338,7 @@
         <v>45173</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19395,7 +19395,7 @@
         <v>44722</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19452,7 +19452,7 @@
         <v>45063</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19509,7 +19509,7 @@
         <v>45705.83746527778</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19566,7 +19566,7 @@
         <v>45705.84123842593</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19623,7 +19623,7 @@
         <v>45195.63581018519</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19680,7 +19680,7 @@
         <v>45629.38939814815</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19737,7 +19737,7 @@
         <v>44949.34574074074</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19794,7 +19794,7 @@
         <v>45639</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19851,7 +19851,7 @@
         <v>45218</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19913,7 +19913,7 @@
         <v>44918.57138888889</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19970,7 +19970,7 @@
         <v>45719.60015046296</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20027,7 +20027,7 @@
         <v>44419</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20084,7 +20084,7 @@
         <v>45063.36952546296</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20141,7 +20141,7 @@
         <v>45085.4334837963</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20198,7 +20198,7 @@
         <v>45009</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20255,7 +20255,7 @@
         <v>45740.49797453704</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20312,7 +20312,7 @@
         <v>44952</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20369,7 +20369,7 @@
         <v>45204.59921296296</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20426,7 +20426,7 @@
         <v>45093</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20483,7 +20483,7 @@
         <v>45708.39165509259</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20540,7 +20540,7 @@
         <v>45211.3163425926</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20597,7 +20597,7 @@
         <v>45211</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20654,7 +20654,7 @@
         <v>45236.58795138889</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20711,7 +20711,7 @@
         <v>45193</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20768,7 +20768,7 @@
         <v>45202.58068287037</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20825,7 +20825,7 @@
         <v>45526.35109953704</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20882,7 +20882,7 @@
         <v>44378.65817129629</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20939,7 +20939,7 @@
         <v>45597.58015046296</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21001,7 +21001,7 @@
         <v>45667.69849537037</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21058,7 +21058,7 @@
         <v>45699</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         <v>45317.41827546297</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21172,7 +21172,7 @@
         <v>45249</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21229,7 +21229,7 @@
         <v>45173.36244212963</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21286,7 +21286,7 @@
         <v>45432.6571875</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21343,7 +21343,7 @@
         <v>44910.45991898148</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21400,7 +21400,7 @@
         <v>44616.56741898148</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21457,7 +21457,7 @@
         <v>45062</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21514,7 +21514,7 @@
         <v>45432.65179398148</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21571,7 +21571,7 @@
         <v>45755.6821875</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21628,7 +21628,7 @@
         <v>45588.41420138889</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21685,7 +21685,7 @@
         <v>45404.37293981481</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21742,7 +21742,7 @@
         <v>44518</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21799,7 +21799,7 @@
         <v>44818.60185185185</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21856,7 +21856,7 @@
         <v>45719.60188657408</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
         <v>45287</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21970,7 +21970,7 @@
         <v>45667.45136574074</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22027,7 +22027,7 @@
         <v>45628.4957175926</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22084,7 +22084,7 @@
         <v>45698.96091435185</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22141,7 +22141,7 @@
         <v>45782.48217592593</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22198,7 +22198,7 @@
         <v>45782.47664351852</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22255,7 +22255,7 @@
         <v>45782.49773148148</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22312,7 +22312,7 @@
         <v>45782.60745370371</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22369,7 +22369,7 @@
         <v>45782.63564814815</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22426,7 +22426,7 @@
         <v>45782.64457175926</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         <v>45782.65953703703</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22540,7 +22540,7 @@
         <v>45782.64012731481</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22597,7 +22597,7 @@
         <v>45247</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22654,7 +22654,7 @@
         <v>45793.58547453704</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22711,7 +22711,7 @@
         <v>45793.60377314815</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22768,7 +22768,7 @@
         <v>45793.57041666667</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
         <v>45793.29696759259</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22882,7 +22882,7 @@
         <v>45792.62280092593</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>45793.29298611111</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         <v>45797.60491898148</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23053,7 +23053,7 @@
         <v>45797.61721064815</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23110,7 +23110,7 @@
         <v>45797.60896990741</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>

--- a/Översikt VALDEMARSVIK.xlsx
+++ b/Översikt VALDEMARSVIK.xlsx
@@ -575,7 +575,7 @@
         <v>45569</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>45238</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>45569</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>45253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>45926.62841435185</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         <v>45699.88070601852</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>44712</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44571</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>45609.70267361111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         <v>45740.55563657408</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>46018.65306712963</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>44770</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         <v>44293</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         <v>45463</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>45331</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>44994</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>45043</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>44952</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>44883</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>45790</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         <v>44244</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2413,7 +2413,7 @@
         <v>44410</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         <v>44378</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         <v>44613.79927083333</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>44749.70993055555</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>44687</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         <v>44869.4808449074</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>44852</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         <v>44417</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>44417</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2926,7 +2926,7 @@
         <v>44281.03122685185</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>44536</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3040,7 +3040,7 @@
         <v>44357</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
         <v>44613</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3154,7 +3154,7 @@
         <v>44531.66954861111</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3211,7 +3211,7 @@
         <v>44278.7549537037</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         <v>44726</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3325,7 +3325,7 @@
         <v>44603.67851851852</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3382,7 +3382,7 @@
         <v>44531</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3439,7 +3439,7 @@
         <v>44881.90741898148</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3496,7 +3496,7 @@
         <v>44287</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
         <v>44362</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>44273</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>44326</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>44281</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>44613.80142361111</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>44613.69971064815</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         <v>44636</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>44564.54900462963</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
         <v>44658</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         <v>44573.57579861111</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         <v>44656</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4180,7 +4180,7 @@
         <v>44463</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>44315</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>44629</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>44417</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>44573</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>44712</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4527,7 +4527,7 @@
         <v>44593</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4584,7 +4584,7 @@
         <v>44882</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>44881.90604166667</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>44454</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>44417</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>44308</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>44322</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>44603</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>44480.65591435185</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>44487</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>44603.67640046297</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>44603.70393518519</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         <v>44256</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>44728.68993055556</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>44279.75896990741</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>44371</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5454,7 +5454,7 @@
         <v>44573</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5511,7 +5511,7 @@
         <v>44753</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         <v>45687.62237268518</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>45601.42112268518</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>45597.58349537037</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5744,7 +5744,7 @@
         <v>44607.71590277777</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5801,7 +5801,7 @@
         <v>45090.31920138889</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>45590.39403935185</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>45540.64366898148</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>45433.60840277778</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6029,7 +6029,7 @@
         <v>45685.7069212963</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>44690</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
         <v>44970</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
         <v>45148.63856481481</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6257,7 +6257,7 @@
         <v>45667.48078703704</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6314,7 +6314,7 @@
         <v>45667.49322916667</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6371,7 +6371,7 @@
         <v>45667.56173611111</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6428,7 +6428,7 @@
         <v>44601.54333333333</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6485,7 +6485,7 @@
         <v>44957</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>45254</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6599,7 +6599,7 @@
         <v>45590.40115740741</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6656,7 +6656,7 @@
         <v>44945</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6713,7 +6713,7 @@
         <v>45020.56628472222</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6770,7 +6770,7 @@
         <v>45189</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6827,7 +6827,7 @@
         <v>45028</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
         <v>44749.69370370371</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6941,7 +6941,7 @@
         <v>45344</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6998,7 +6998,7 @@
         <v>45761.47571759259</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7055,7 +7055,7 @@
         <v>44949.35385416666</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>45719.6859375</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
         <v>45176.67278935185</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7226,7 +7226,7 @@
         <v>45336.62203703704</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>44454</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7340,7 +7340,7 @@
         <v>44573</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         <v>44573</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7454,7 +7454,7 @@
         <v>45581</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7511,7 +7511,7 @@
         <v>45761.47806712963</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7568,7 +7568,7 @@
         <v>45568</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7625,7 +7625,7 @@
         <v>45090.31699074074</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7682,7 +7682,7 @@
         <v>45202</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7739,7 +7739,7 @@
         <v>44833</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7796,7 +7796,7 @@
         <v>45803.60685185185</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7853,7 +7853,7 @@
         <v>45310.56167824074</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7910,7 +7910,7 @@
         <v>45204.59734953703</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7967,7 +7967,7 @@
         <v>45183</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8024,7 +8024,7 @@
         <v>45183</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8081,7 +8081,7 @@
         <v>45271</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
         <v>45800.29532407408</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         <v>44592.57141203704</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         <v>45628.54787037037</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8314,7 +8314,7 @@
         <v>45093</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         <v>45818.46033564815</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         <v>45890.64196759259</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         <v>45890.64568287037</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         <v>45890.64841435185</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8599,7 +8599,7 @@
         <v>45890.65094907407</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         <v>45890.63361111111</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>45891</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>45667.50155092592</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>45667.56914351852</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>45890.66296296296</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>45891</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>45742.44043981482</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>45897.39159722222</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>45782</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9169,7 +9169,7 @@
         <v>45897.44991898148</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>45158</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>44593</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>45901.56068287037</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>45901</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>44463</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>45733</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9573,7 +9573,7 @@
         <v>45740</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9650,7 +9650,7 @@
         <v>45902.71516203704</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9707,7 +9707,7 @@
         <v>45902.71751157408</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9764,7 +9764,7 @@
         <v>45902.72295138889</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9821,7 +9821,7 @@
         <v>45902.72454861111</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>45238.85070601852</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>45902.70725694444</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>45902.7112037037</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
         <v>45902.71890046296</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10106,7 +10106,7 @@
         <v>45902.71278935186</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10163,7 +10163,7 @@
         <v>45902.72226851852</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10220,7 +10220,7 @@
         <v>45902.72586805555</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10277,7 +10277,7 @@
         <v>44974</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10334,7 +10334,7 @@
         <v>45323</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10391,7 +10391,7 @@
         <v>45036</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10448,7 +10448,7 @@
         <v>45908.48502314815</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10505,7 +10505,7 @@
         <v>45908.48112268518</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10562,7 +10562,7 @@
         <v>44799.58418981481</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10619,7 +10619,7 @@
         <v>45667.471875</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10676,7 +10676,7 @@
         <v>44894</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10733,7 +10733,7 @@
         <v>44587</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10790,7 +10790,7 @@
         <v>44749</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10847,7 +10847,7 @@
         <v>44417</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10904,7 +10904,7 @@
         <v>45404.35048611111</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10961,7 +10961,7 @@
         <v>45624.6911574074</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11018,7 +11018,7 @@
         <v>45667.58902777778</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11075,7 +11075,7 @@
         <v>44949</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>45924.46423611111</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11189,7 +11189,7 @@
         <v>45926.64467592593</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11246,7 +11246,7 @@
         <v>45926.64569444444</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11303,7 +11303,7 @@
         <v>45601.62434027778</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11360,7 +11360,7 @@
         <v>45926.63296296296</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11417,7 +11417,7 @@
         <v>45926.62104166667</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11474,7 +11474,7 @@
         <v>45929.46962962963</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11531,7 +11531,7 @@
         <v>45357.30267361111</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11588,7 +11588,7 @@
         <v>45929.46505787037</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11645,7 +11645,7 @@
         <v>45926</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11702,7 +11702,7 @@
         <v>45926.625</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11759,7 +11759,7 @@
         <v>45581</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11816,7 +11816,7 @@
         <v>45581</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11873,7 +11873,7 @@
         <v>45035</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11935,7 +11935,7 @@
         <v>44937</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11992,7 +11992,7 @@
         <v>44937.72628472222</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12049,7 +12049,7 @@
         <v>45258.70151620371</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12106,7 +12106,7 @@
         <v>44965.57659722222</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         <v>45934.78538194444</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12220,7 +12220,7 @@
         <v>45840.71472222222</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12277,7 +12277,7 @@
         <v>44883.62292824074</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>45176</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>45205.41054398148</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12453,7 +12453,7 @@
         <v>44979.48650462963</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         <v>45099.60927083333</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12567,7 +12567,7 @@
         <v>44942</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12624,7 +12624,7 @@
         <v>45944.35180555555</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12681,7 +12681,7 @@
         <v>45354</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12738,7 +12738,7 @@
         <v>44896</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12795,7 +12795,7 @@
         <v>45946.50857638889</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12852,7 +12852,7 @@
         <v>45950.58934027778</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12909,7 +12909,7 @@
         <v>44491.40493055555</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12966,7 +12966,7 @@
         <v>45093</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13023,7 +13023,7 @@
         <v>45093</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13080,7 +13080,7 @@
         <v>45846.3959375</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13137,7 +13137,7 @@
         <v>44585</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13194,7 +13194,7 @@
         <v>44454.49141203704</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13251,7 +13251,7 @@
         <v>45790.56094907408</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13308,7 +13308,7 @@
         <v>45699.88890046296</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13365,7 +13365,7 @@
         <v>44903</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13422,7 +13422,7 @@
         <v>44985</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13479,7 +13479,7 @@
         <v>45481.61375</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13536,7 +13536,7 @@
         <v>45228.75215277778</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13593,7 +13593,7 @@
         <v>45167</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13650,7 +13650,7 @@
         <v>44916</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13707,7 +13707,7 @@
         <v>45876</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13764,7 +13764,7 @@
         <v>44897</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13821,7 +13821,7 @@
         <v>44463</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13883,7 +13883,7 @@
         <v>45170</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13940,7 +13940,7 @@
         <v>45761.68189814815</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13997,7 +13997,7 @@
         <v>45411</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14054,7 +14054,7 @@
         <v>45685.3190625</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>45685.3234837963</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14168,7 +14168,7 @@
         <v>45632.55439814815</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14225,7 +14225,7 @@
         <v>45973.68703703704</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14282,7 +14282,7 @@
         <v>45972.46515046297</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14339,7 +14339,7 @@
         <v>44852</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14396,7 +14396,7 @@
         <v>45215.67923611111</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14453,7 +14453,7 @@
         <v>45887.65681712963</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>45352.4880787037</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>46019.56672453704</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>46020.3633912037</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>46020.84125</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14738,7 +14738,7 @@
         <v>45758.44194444444</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
         <v>46020.3581712963</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14852,7 +14852,7 @@
         <v>46018.66457175926</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>46019.556875</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14966,7 +14966,7 @@
         <v>46019.55893518519</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15023,7 +15023,7 @@
         <v>46020.83644675926</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15080,7 +15080,7 @@
         <v>45258.70559027778</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>44980</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15194,7 +15194,7 @@
         <v>46027.46884259259</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15251,7 +15251,7 @@
         <v>44587</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15308,7 +15308,7 @@
         <v>46027.49337962963</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15365,7 +15365,7 @@
         <v>45569.31166666667</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15422,7 +15422,7 @@
         <v>44725</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15479,7 +15479,7 @@
         <v>46027.50201388889</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15536,7 +15536,7 @@
         <v>45986.62471064815</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15593,7 +15593,7 @@
         <v>45986.63265046296</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15650,7 +15650,7 @@
         <v>46029.46594907407</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15712,7 +15712,7 @@
         <v>45986.62858796296</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15769,7 +15769,7 @@
         <v>45986.6403125</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         <v>44321</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15883,7 +15883,7 @@
         <v>45698.95604166666</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15940,7 +15940,7 @@
         <v>45989.58854166666</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16002,7 +16002,7 @@
         <v>45581</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16059,7 +16059,7 @@
         <v>45992.67606481481</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16116,7 +16116,7 @@
         <v>45565.84452546296</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16173,7 +16173,7 @@
         <v>45040</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16235,7 +16235,7 @@
         <v>45992.67703703704</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16292,7 +16292,7 @@
         <v>45708.38859953704</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16349,7 +16349,7 @@
         <v>44728</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16406,7 +16406,7 @@
         <v>45339</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16463,7 +16463,7 @@
         <v>44652.90847222223</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16520,7 +16520,7 @@
         <v>45999.59362268518</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16582,7 +16582,7 @@
         <v>45036</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16639,7 +16639,7 @@
         <v>45999.60096064815</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16701,7 +16701,7 @@
         <v>45743.5756712963</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>46000</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16815,7 +16815,7 @@
         <v>45740</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>45740</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16929,7 +16929,7 @@
         <v>44970</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16986,7 +16986,7 @@
         <v>46027.44552083333</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17043,7 +17043,7 @@
         <v>44922</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17100,7 +17100,7 @@
         <v>45195</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17157,7 +17157,7 @@
         <v>44972</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17214,7 +17214,7 @@
         <v>45698.96422453703</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>46006.59824074074</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17328,7 +17328,7 @@
         <v>46049.33</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17385,7 +17385,7 @@
         <v>46006.5808912037</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17442,7 +17442,7 @@
         <v>44883</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17499,7 +17499,7 @@
         <v>46006.58912037037</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17556,7 +17556,7 @@
         <v>46006.59519675926</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>45433.5965625</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17670,7 +17670,7 @@
         <v>45183.32618055555</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17727,7 +17727,7 @@
         <v>45628.54432870371</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17784,7 +17784,7 @@
         <v>45601.62701388889</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17841,7 +17841,7 @@
         <v>44777</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17898,7 +17898,7 @@
         <v>44899.50475694444</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17955,7 +17955,7 @@
         <v>46055</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18012,7 +18012,7 @@
         <v>45404.60186342592</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18069,7 +18069,7 @@
         <v>45215.49336805556</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18126,7 +18126,7 @@
         <v>46055</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18183,7 +18183,7 @@
         <v>46055</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18240,7 +18240,7 @@
         <v>44953</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18297,7 +18297,7 @@
         <v>44830</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18354,7 +18354,7 @@
         <v>45257</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18411,7 +18411,7 @@
         <v>46014.64821759259</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18468,7 +18468,7 @@
         <v>44463</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18530,7 +18530,7 @@
         <v>44613.69353009259</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18587,7 +18587,7 @@
         <v>45569.32538194444</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>45569.32959490741</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18711,7 +18711,7 @@
         <v>45063.3709375</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18768,7 +18768,7 @@
         <v>45394.42204861111</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18825,7 +18825,7 @@
         <v>45667.57810185185</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18882,7 +18882,7 @@
         <v>45750.58451388889</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18939,7 +18939,7 @@
         <v>45758.44706018519</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18996,7 +18996,7 @@
         <v>45133</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19053,7 +19053,7 @@
         <v>45063</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19110,7 +19110,7 @@
         <v>45546.39056712963</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19167,7 +19167,7 @@
         <v>45546.42262731482</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19224,7 +19224,7 @@
         <v>45719.61589120371</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19281,7 +19281,7 @@
         <v>44575</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19338,7 +19338,7 @@
         <v>45173</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19395,7 +19395,7 @@
         <v>44722</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19452,7 +19452,7 @@
         <v>45063</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19509,7 +19509,7 @@
         <v>45705.83746527778</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19566,7 +19566,7 @@
         <v>45705.84123842593</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19623,7 +19623,7 @@
         <v>45195.63581018519</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19680,7 +19680,7 @@
         <v>45629.38939814815</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19737,7 +19737,7 @@
         <v>44949.34574074074</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19794,7 +19794,7 @@
         <v>45639</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19851,7 +19851,7 @@
         <v>45218</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19913,7 +19913,7 @@
         <v>44918.57138888889</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19970,7 +19970,7 @@
         <v>45719.60015046296</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20027,7 +20027,7 @@
         <v>44419</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20084,7 +20084,7 @@
         <v>45063.36952546296</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20141,7 +20141,7 @@
         <v>45085.4334837963</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20198,7 +20198,7 @@
         <v>45009</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20255,7 +20255,7 @@
         <v>45740.49797453704</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20312,7 +20312,7 @@
         <v>44952</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20369,7 +20369,7 @@
         <v>45204.59921296296</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20426,7 +20426,7 @@
         <v>45093</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20483,7 +20483,7 @@
         <v>45708.39165509259</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20540,7 +20540,7 @@
         <v>45211.3163425926</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20597,7 +20597,7 @@
         <v>45211</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20654,7 +20654,7 @@
         <v>45236.58795138889</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20711,7 +20711,7 @@
         <v>45193</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20768,7 +20768,7 @@
         <v>45202.58068287037</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20825,7 +20825,7 @@
         <v>45526.35109953704</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20882,7 +20882,7 @@
         <v>44378.65817129629</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20939,7 +20939,7 @@
         <v>45597.58015046296</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21001,7 +21001,7 @@
         <v>45667.69849537037</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21058,7 +21058,7 @@
         <v>45699</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         <v>45317.41827546297</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21172,7 +21172,7 @@
         <v>45249</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21229,7 +21229,7 @@
         <v>45173.36244212963</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21286,7 +21286,7 @@
         <v>45432.6571875</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21343,7 +21343,7 @@
         <v>44910.45991898148</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21400,7 +21400,7 @@
         <v>44616.56741898148</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21457,7 +21457,7 @@
         <v>45062</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21514,7 +21514,7 @@
         <v>45432.65179398148</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21571,7 +21571,7 @@
         <v>45755.6821875</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21628,7 +21628,7 @@
         <v>45588.41420138889</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21685,7 +21685,7 @@
         <v>45404.37293981481</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21742,7 +21742,7 @@
         <v>44518</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21799,7 +21799,7 @@
         <v>44818.60185185185</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21856,7 +21856,7 @@
         <v>45719.60188657408</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
         <v>45287</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21970,7 +21970,7 @@
         <v>45667.45136574074</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22027,7 +22027,7 @@
         <v>45628.4957175926</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22084,7 +22084,7 @@
         <v>45698.96091435185</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22141,7 +22141,7 @@
         <v>45782.48217592593</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22198,7 +22198,7 @@
         <v>45782.47664351852</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22255,7 +22255,7 @@
         <v>45782.49773148148</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22312,7 +22312,7 @@
         <v>45782.60745370371</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22369,7 +22369,7 @@
         <v>45782.63564814815</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22426,7 +22426,7 @@
         <v>45782.64457175926</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         <v>45782.65953703703</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22540,7 +22540,7 @@
         <v>45782.64012731481</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22597,7 +22597,7 @@
         <v>45247</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22654,7 +22654,7 @@
         <v>45793.58547453704</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22711,7 +22711,7 @@
         <v>45793.60377314815</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22768,7 +22768,7 @@
         <v>45793.57041666667</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
         <v>45793.29696759259</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22882,7 +22882,7 @@
         <v>45792.62280092593</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>45793.29298611111</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         <v>45797.60491898148</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23053,7 +23053,7 @@
         <v>45797.61721064815</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23110,7 +23110,7 @@
         <v>45797.60896990741</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>

--- a/Översikt VALDEMARSVIK.xlsx
+++ b/Översikt VALDEMARSVIK.xlsx
@@ -575,7 +575,7 @@
         <v>45569</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>45238</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>45569</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>45253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>45926.62841435185</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         <v>45699.88070601852</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>44712</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44571</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>45609.70267361111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         <v>45740.55563657408</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>46018.65306712963</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>44770</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         <v>44293</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         <v>45463</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>45331</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>44994</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>45043</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>44952</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>44883</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>45790</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         <v>44410</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2413,7 +2413,7 @@
         <v>44378</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         <v>44613.79927083333</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         <v>44749.70993055555</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>44869.4808449074</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>44687</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         <v>44852</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>44417</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         <v>44281.03122685185</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>44417</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2926,7 +2926,7 @@
         <v>44536</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>44357</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3040,7 +3040,7 @@
         <v>44613</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
         <v>44278.7549537037</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3154,7 +3154,7 @@
         <v>44531.66954861111</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3211,7 +3211,7 @@
         <v>44726</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         <v>44603.67851851852</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3325,7 +3325,7 @@
         <v>44287</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3382,7 +3382,7 @@
         <v>44531</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3439,7 +3439,7 @@
         <v>44881.90741898148</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3496,7 +3496,7 @@
         <v>44273</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
         <v>44362</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>44326</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>44281</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>44613.80142361111</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>44564.54900462963</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>44613.69971064815</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         <v>44636</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>44658</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
         <v>44573.57579861111</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         <v>44656</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         <v>44463</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>44315</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>44629</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>44417</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>44573</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>44712</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>44593</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4527,7 +4527,7 @@
         <v>44882</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>44881.90604166667</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>44454</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>44417</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>44308</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>44322</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>44603</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         <v>44480.65591435185</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>44487</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>44603.67640046297</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>44603.70393518519</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>44256</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         <v>44728.68993055556</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>44279.75896990741</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>44371</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>44573</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5454,7 +5454,7 @@
         <v>44753</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5511,7 +5511,7 @@
         <v>45687.62237268518</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         <v>45601.42112268518</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>44607.71590277777</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>45590.39403935185</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>45540.64366898148</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>45433.60840277778</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>45685.7069212963</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5910,7 +5910,7 @@
         <v>45090.31920138889</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>44690</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>45597.58349537037</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>44970</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
         <v>45148.63856481481</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
         <v>45667.48078703704</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6257,7 +6257,7 @@
         <v>45667.49322916667</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6314,7 +6314,7 @@
         <v>45667.56173611111</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6371,7 +6371,7 @@
         <v>44601.54333333333</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6428,7 +6428,7 @@
         <v>44957</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6485,7 +6485,7 @@
         <v>45254</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>45590.40115740741</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6599,7 +6599,7 @@
         <v>45020.56628472222</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6656,7 +6656,7 @@
         <v>44945</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6713,7 +6713,7 @@
         <v>45028</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6770,7 +6770,7 @@
         <v>45189</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6827,7 +6827,7 @@
         <v>44749.69370370371</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
         <v>45344</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6941,7 +6941,7 @@
         <v>45719.6859375</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6998,7 +6998,7 @@
         <v>45176.67278935185</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7055,7 +7055,7 @@
         <v>44949.35385416666</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>45336.62203703704</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
         <v>44454</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7226,7 +7226,7 @@
         <v>45761.47806712963</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>44573</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7340,7 +7340,7 @@
         <v>44573</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         <v>45581</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7454,7 +7454,7 @@
         <v>45568</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7511,7 +7511,7 @@
         <v>45202</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7568,7 +7568,7 @@
         <v>44833</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7625,7 +7625,7 @@
         <v>45090.31699074074</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7682,7 +7682,7 @@
         <v>45204.59734953703</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7739,7 +7739,7 @@
         <v>45761.47571759259</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7796,7 +7796,7 @@
         <v>45183</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7853,7 +7853,7 @@
         <v>45183</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7910,7 +7910,7 @@
         <v>44592.57141203704</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7967,7 +7967,7 @@
         <v>45271</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         <v>45628.54787037037</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8086,7 +8086,7 @@
         <v>45093</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
         <v>45667.50155092592</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         <v>45667.56914351852</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         <v>45782</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8314,7 +8314,7 @@
         <v>45742.44043981482</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         <v>45733</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         <v>45158</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         <v>44593</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         <v>45740</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8619,7 +8619,7 @@
         <v>44463</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>45238.85070601852</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>45818.46033564815</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>44974</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>45890.64196759259</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>45890.64568287037</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>45890.64841435185</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>45890.65094907407</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>45323</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>45890.63361111111</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>45891</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>45036</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>45890.66296296296</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>45891</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>44799.58418981481</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>45897.39159722222</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>45897.44991898148</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         <v>45667.471875</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9650,7 +9650,7 @@
         <v>44894</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9707,7 +9707,7 @@
         <v>45901.56068287037</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9764,7 +9764,7 @@
         <v>45901</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9821,7 +9821,7 @@
         <v>44587</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>45902.71516203704</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>44749</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>45902.71751157408</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
         <v>45902.72295138889</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10106,7 +10106,7 @@
         <v>45902.72454861111</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10163,7 +10163,7 @@
         <v>44417</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10220,7 +10220,7 @@
         <v>45902.70725694444</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10277,7 +10277,7 @@
         <v>45902.7112037037</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10334,7 +10334,7 @@
         <v>45902.71890046296</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10391,7 +10391,7 @@
         <v>45902.71278935186</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10448,7 +10448,7 @@
         <v>45902.72226851852</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10505,7 +10505,7 @@
         <v>45902.72586805555</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10562,7 +10562,7 @@
         <v>45404.35048611111</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10619,7 +10619,7 @@
         <v>45624.6911574074</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10676,7 +10676,7 @@
         <v>45908.48502314815</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10733,7 +10733,7 @@
         <v>45908.48112268518</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10790,7 +10790,7 @@
         <v>45840.71472222222</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10847,7 +10847,7 @@
         <v>45667.58902777778</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10904,7 +10904,7 @@
         <v>44949</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10961,7 +10961,7 @@
         <v>45601.62434027778</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11018,7 +11018,7 @@
         <v>45357.30267361111</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11075,7 +11075,7 @@
         <v>45581</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>45581</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11189,7 +11189,7 @@
         <v>45035</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         <v>44937</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>44937.72628472222</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>45258.70151620371</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>44491.40493055555</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>44965.57659722222</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11536,7 +11536,7 @@
         <v>45846.3959375</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
         <v>44883.62292824074</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11650,7 +11650,7 @@
         <v>44454.49141203704</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11707,7 +11707,7 @@
         <v>45790.56094907408</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11764,7 +11764,7 @@
         <v>45699.88890046296</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11821,7 +11821,7 @@
         <v>45924.46423611111</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11878,7 +11878,7 @@
         <v>45926.64467592593</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11935,7 +11935,7 @@
         <v>45926.64569444444</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11992,7 +11992,7 @@
         <v>45176</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12049,7 +12049,7 @@
         <v>45205.41054398148</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12111,7 +12111,7 @@
         <v>45926.63296296296</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12168,7 +12168,7 @@
         <v>45926.62104166667</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12225,7 +12225,7 @@
         <v>44979.48650462963</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12282,7 +12282,7 @@
         <v>45929.46962962963</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12339,7 +12339,7 @@
         <v>45929.46505787037</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12396,7 +12396,7 @@
         <v>45926</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12453,7 +12453,7 @@
         <v>45926.625</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         <v>45099.60927083333</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12567,7 +12567,7 @@
         <v>44942</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12624,7 +12624,7 @@
         <v>45354</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12681,7 +12681,7 @@
         <v>44896</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12738,7 +12738,7 @@
         <v>45876</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12795,7 +12795,7 @@
         <v>45934.78538194444</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12852,7 +12852,7 @@
         <v>45093</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12909,7 +12909,7 @@
         <v>45093</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12966,7 +12966,7 @@
         <v>44585</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13023,7 +13023,7 @@
         <v>44903</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13080,7 +13080,7 @@
         <v>45887.65681712963</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13137,7 +13137,7 @@
         <v>45944.35180555555</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13194,7 +13194,7 @@
         <v>44985</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13251,7 +13251,7 @@
         <v>45946.50857638889</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13308,7 +13308,7 @@
         <v>45481.61375</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13365,7 +13365,7 @@
         <v>45950.58934027778</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13422,7 +13422,7 @@
         <v>45228.75215277778</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13479,7 +13479,7 @@
         <v>45167</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13536,7 +13536,7 @@
         <v>44916</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13593,7 +13593,7 @@
         <v>44897</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13650,7 +13650,7 @@
         <v>44463</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13712,7 +13712,7 @@
         <v>45170</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13769,7 +13769,7 @@
         <v>45761.68189814815</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         <v>45411</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13883,7 +13883,7 @@
         <v>45685.3190625</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13940,7 +13940,7 @@
         <v>45685.3234837963</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13997,7 +13997,7 @@
         <v>45632.55439814815</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14054,7 +14054,7 @@
         <v>44852</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>45215.67923611111</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14168,7 +14168,7 @@
         <v>45352.4880787037</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14225,7 +14225,7 @@
         <v>45758.44194444444</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14282,7 +14282,7 @@
         <v>45258.70559027778</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14339,7 +14339,7 @@
         <v>44980</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14396,7 +14396,7 @@
         <v>44587</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14453,7 +14453,7 @@
         <v>45973.68703703704</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>45972.46515046297</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>45569.31166666667</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>44725</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>44321</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14738,7 +14738,7 @@
         <v>45698.95604166666</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
         <v>45581</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14852,7 +14852,7 @@
         <v>45565.84452546296</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>45040</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14971,7 +14971,7 @@
         <v>45986.62471064815</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15028,7 +15028,7 @@
         <v>45986.63265046296</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15085,7 +15085,7 @@
         <v>45986.62858796296</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15142,7 +15142,7 @@
         <v>45986.6403125</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15199,7 +15199,7 @@
         <v>45989.58854166666</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>45992.67606481481</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15318,7 +15318,7 @@
         <v>45708.38859953704</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15375,7 +15375,7 @@
         <v>45992.67703703704</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15432,7 +15432,7 @@
         <v>44728</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15489,7 +15489,7 @@
         <v>45339</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15546,7 +15546,7 @@
         <v>44652.90847222223</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15603,7 +15603,7 @@
         <v>45036</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15660,7 +15660,7 @@
         <v>45743.5756712963</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15717,7 +15717,7 @@
         <v>45999.59362268518</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15779,7 +15779,7 @@
         <v>45999.60096064815</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15841,7 +15841,7 @@
         <v>45740</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15898,7 +15898,7 @@
         <v>45740</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15955,7 +15955,7 @@
         <v>44970</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16012,7 +16012,7 @@
         <v>46000</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16069,7 +16069,7 @@
         <v>44922</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16126,7 +16126,7 @@
         <v>45195</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16183,7 +16183,7 @@
         <v>44972</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16240,7 +16240,7 @@
         <v>45698.96422453703</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16297,7 +16297,7 @@
         <v>44883</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16354,7 +16354,7 @@
         <v>46006.59824074074</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16411,7 +16411,7 @@
         <v>46049.33</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16468,7 +16468,7 @@
         <v>45433.5965625</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16525,7 +16525,7 @@
         <v>46006.5808912037</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16582,7 +16582,7 @@
         <v>46006.58912037037</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16639,7 +16639,7 @@
         <v>45183.32618055555</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16696,7 +16696,7 @@
         <v>45628.54432870371</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16753,7 +16753,7 @@
         <v>45601.62701388889</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>46006.59519675926</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         <v>44777</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16924,7 +16924,7 @@
         <v>44899.50475694444</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16981,7 +16981,7 @@
         <v>45404.60186342592</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17038,7 +17038,7 @@
         <v>45215.49336805556</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17095,7 +17095,7 @@
         <v>46055</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17152,7 +17152,7 @@
         <v>44953</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17209,7 +17209,7 @@
         <v>46055</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         <v>44830</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17323,7 +17323,7 @@
         <v>46055</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17380,7 +17380,7 @@
         <v>45257</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17437,7 +17437,7 @@
         <v>44463</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17499,7 +17499,7 @@
         <v>46014.64821759259</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17556,7 +17556,7 @@
         <v>44613.69353009259</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>45569.32538194444</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>45569.32959490741</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17737,7 +17737,7 @@
         <v>45063.3709375</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17794,7 +17794,7 @@
         <v>45394.42204861111</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17851,7 +17851,7 @@
         <v>45667.57810185185</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17908,7 +17908,7 @@
         <v>45750.58451388889</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>45758.44706018519</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>45133</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>46020.3633912037</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>46020.83644675926</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>46018.66457175926</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>46019.556875</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>46019.56672453704</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>45063</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>45546.39056712963</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>45546.42262731482</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>46020.3581712963</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18592,7 +18592,7 @@
         <v>45719.61589120371</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>44575</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         <v>46020.84125</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
         <v>46019.55893518519</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18820,7 +18820,7 @@
         <v>45173</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18877,7 +18877,7 @@
         <v>44722</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18934,7 +18934,7 @@
         <v>46066</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18991,7 +18991,7 @@
         <v>46066</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19048,7 +19048,7 @@
         <v>46027.50201388889</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19105,7 +19105,7 @@
         <v>45063</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>46027.49337962963</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>46066</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>45705.83746527778</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19333,7 +19333,7 @@
         <v>45705.84123842593</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19390,7 +19390,7 @@
         <v>46066</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19447,7 +19447,7 @@
         <v>46027.46884259259</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19504,7 +19504,7 @@
         <v>45195.63581018519</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19561,7 +19561,7 @@
         <v>45629.38939814815</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19618,7 +19618,7 @@
         <v>44949.34574074074</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         <v>45639</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19732,7 +19732,7 @@
         <v>45218</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19794,7 +19794,7 @@
         <v>46029.46594907407</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19856,7 +19856,7 @@
         <v>44918.57138888889</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19913,7 +19913,7 @@
         <v>45719.60015046296</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19970,7 +19970,7 @@
         <v>46027.44552083333</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20027,7 +20027,7 @@
         <v>44419</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20084,7 +20084,7 @@
         <v>45063.36952546296</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20141,7 +20141,7 @@
         <v>45085.4334837963</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20198,7 +20198,7 @@
         <v>45009</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20255,7 +20255,7 @@
         <v>45740.49797453704</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20312,7 +20312,7 @@
         <v>44952</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20369,7 +20369,7 @@
         <v>45204.59921296296</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20426,7 +20426,7 @@
         <v>45093</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20483,7 +20483,7 @@
         <v>45708.39165509259</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20540,7 +20540,7 @@
         <v>45211.3163425926</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20597,7 +20597,7 @@
         <v>45211</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20654,7 +20654,7 @@
         <v>45236.58795138889</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20711,7 +20711,7 @@
         <v>45193</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20768,7 +20768,7 @@
         <v>45202.58068287037</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20825,7 +20825,7 @@
         <v>45526.35109953704</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20882,7 +20882,7 @@
         <v>44378.65817129629</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20939,7 +20939,7 @@
         <v>45597.58015046296</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21001,7 +21001,7 @@
         <v>45667.69849537037</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21058,7 +21058,7 @@
         <v>45699</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         <v>45317.41827546297</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21172,7 +21172,7 @@
         <v>45249</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21229,7 +21229,7 @@
         <v>45173.36244212963</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21286,7 +21286,7 @@
         <v>45432.6571875</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21343,7 +21343,7 @@
         <v>44910.45991898148</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21400,7 +21400,7 @@
         <v>44616.56741898148</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21457,7 +21457,7 @@
         <v>45062</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21514,7 +21514,7 @@
         <v>45432.65179398148</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21571,7 +21571,7 @@
         <v>45755.6821875</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21628,7 +21628,7 @@
         <v>45588.41420138889</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21685,7 +21685,7 @@
         <v>45404.37293981481</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21742,7 +21742,7 @@
         <v>44518</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21799,7 +21799,7 @@
         <v>44818.60185185185</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21856,7 +21856,7 @@
         <v>45719.60188657408</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
         <v>45287</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21970,7 +21970,7 @@
         <v>45667.45136574074</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22027,7 +22027,7 @@
         <v>45628.4957175926</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22084,7 +22084,7 @@
         <v>45698.96091435185</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22141,7 +22141,7 @@
         <v>45782.48217592593</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22198,7 +22198,7 @@
         <v>45782.47664351852</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22255,7 +22255,7 @@
         <v>45782.49773148148</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22312,7 +22312,7 @@
         <v>45782.60745370371</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22369,7 +22369,7 @@
         <v>45782.63564814815</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22426,7 +22426,7 @@
         <v>45782.64457175926</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         <v>45782.65953703703</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22540,7 +22540,7 @@
         <v>45782.64012731481</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22597,7 +22597,7 @@
         <v>45247</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22654,7 +22654,7 @@
         <v>45793.58547453704</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22711,7 +22711,7 @@
         <v>45793.60377314815</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22768,7 +22768,7 @@
         <v>45793.57041666667</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
         <v>45793.29696759259</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22882,7 +22882,7 @@
         <v>45792.62280092593</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>45793.29298611111</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         <v>45797.60491898148</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23053,7 +23053,7 @@
         <v>45797.61721064815</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23110,7 +23110,7 @@
         <v>45797.60896990741</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23167,7 +23167,7 @@
         <v>45803.60685185185</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23224,7 +23224,7 @@
         <v>45310.56167824074</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23281,7 +23281,7 @@
         <v>45800.29532407408</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>

--- a/Översikt VALDEMARSVIK.xlsx
+++ b/Översikt VALDEMARSVIK.xlsx
@@ -575,7 +575,7 @@
         <v>45569</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>45238</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>45569</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>45253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>45926.62841435185</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         <v>45699.88070601852</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>44712</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44571</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>45609.70267361111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         <v>45740.55563657408</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>46018.65306712963</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>44770</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         <v>44293</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         <v>45463</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>45331</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>44994</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>45043</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>44952</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>44883</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>45790</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         <v>44410</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2413,7 +2413,7 @@
         <v>44378</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         <v>44613.79927083333</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         <v>44749.70993055555</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>44869.4808449074</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>44687</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         <v>44852</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>44417</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         <v>44281.03122685185</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>44417</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2926,7 +2926,7 @@
         <v>44536</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>44357</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3040,7 +3040,7 @@
         <v>44613</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
         <v>44278.7549537037</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3154,7 +3154,7 @@
         <v>44531.66954861111</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3211,7 +3211,7 @@
         <v>44726</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         <v>44603.67851851852</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3325,7 +3325,7 @@
         <v>44287</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3382,7 +3382,7 @@
         <v>44531</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3439,7 +3439,7 @@
         <v>44881.90741898148</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3496,7 +3496,7 @@
         <v>44273</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
         <v>44362</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>44326</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>44281</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>44613.80142361111</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>44564.54900462963</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>44613.69971064815</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         <v>44636</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>44658</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
         <v>44573.57579861111</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         <v>44656</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         <v>44463</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>44315</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>44629</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>44417</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>44573</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>44712</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>44593</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4527,7 +4527,7 @@
         <v>44882</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>44881.90604166667</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>44454</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>44417</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>44308</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>44322</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>44603</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         <v>44480.65591435185</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>44487</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>44603.67640046297</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>44603.70393518519</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>44256</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         <v>44728.68993055556</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>44279.75896990741</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>44371</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>44573</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5454,7 +5454,7 @@
         <v>44753</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5511,7 +5511,7 @@
         <v>45687.62237268518</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         <v>45601.42112268518</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>44607.71590277777</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>45590.39403935185</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>45540.64366898148</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>45433.60840277778</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>45685.7069212963</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5910,7 +5910,7 @@
         <v>45090.31920138889</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>44690</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>45597.58349537037</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>44970</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
         <v>45148.63856481481</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
         <v>45667.48078703704</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6257,7 +6257,7 @@
         <v>45667.49322916667</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6314,7 +6314,7 @@
         <v>45667.56173611111</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6371,7 +6371,7 @@
         <v>44601.54333333333</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6428,7 +6428,7 @@
         <v>44957</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6485,7 +6485,7 @@
         <v>45254</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>45590.40115740741</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6599,7 +6599,7 @@
         <v>45020.56628472222</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6656,7 +6656,7 @@
         <v>44945</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6713,7 +6713,7 @@
         <v>45028</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6770,7 +6770,7 @@
         <v>45189</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6827,7 +6827,7 @@
         <v>44749.69370370371</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
         <v>45344</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6941,7 +6941,7 @@
         <v>45719.6859375</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6998,7 +6998,7 @@
         <v>45176.67278935185</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7055,7 +7055,7 @@
         <v>44949.35385416666</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>45336.62203703704</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
         <v>44454</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7226,7 +7226,7 @@
         <v>45761.47806712963</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>44573</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7340,7 +7340,7 @@
         <v>44573</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         <v>45581</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7454,7 +7454,7 @@
         <v>45568</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7511,7 +7511,7 @@
         <v>45202</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7568,7 +7568,7 @@
         <v>44833</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7625,7 +7625,7 @@
         <v>45090.31699074074</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7682,7 +7682,7 @@
         <v>45204.59734953703</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7739,7 +7739,7 @@
         <v>45761.47571759259</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7796,7 +7796,7 @@
         <v>45183</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7853,7 +7853,7 @@
         <v>45183</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7910,7 +7910,7 @@
         <v>44592.57141203704</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7967,7 +7967,7 @@
         <v>45271</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         <v>45628.54787037037</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8086,7 +8086,7 @@
         <v>45093</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
         <v>45667.50155092592</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         <v>45667.56914351852</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         <v>45782</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8314,7 +8314,7 @@
         <v>45742.44043981482</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         <v>45733</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         <v>45158</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         <v>44593</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         <v>45740</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8619,7 +8619,7 @@
         <v>44463</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>45238.85070601852</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>45818.46033564815</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>44974</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>45890.64196759259</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>45890.64568287037</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>45890.64841435185</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>45890.65094907407</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>45323</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>45890.63361111111</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>45891</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>45036</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>45890.66296296296</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>45891</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>44799.58418981481</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>45897.39159722222</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>45897.44991898148</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         <v>45667.471875</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9650,7 +9650,7 @@
         <v>44894</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9707,7 +9707,7 @@
         <v>45901.56068287037</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9764,7 +9764,7 @@
         <v>45901</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9821,7 +9821,7 @@
         <v>44587</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>45902.71516203704</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>44749</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>45902.71751157408</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
         <v>45902.72295138889</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10106,7 +10106,7 @@
         <v>45902.72454861111</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10163,7 +10163,7 @@
         <v>44417</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10220,7 +10220,7 @@
         <v>45902.70725694444</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10277,7 +10277,7 @@
         <v>45902.7112037037</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10334,7 +10334,7 @@
         <v>45902.71890046296</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10391,7 +10391,7 @@
         <v>45902.71278935186</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10448,7 +10448,7 @@
         <v>45902.72226851852</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10505,7 +10505,7 @@
         <v>45902.72586805555</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10562,7 +10562,7 @@
         <v>45404.35048611111</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10619,7 +10619,7 @@
         <v>45624.6911574074</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10676,7 +10676,7 @@
         <v>45908.48502314815</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10733,7 +10733,7 @@
         <v>45908.48112268518</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10790,7 +10790,7 @@
         <v>45840.71472222222</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10847,7 +10847,7 @@
         <v>45667.58902777778</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10904,7 +10904,7 @@
         <v>44949</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10961,7 +10961,7 @@
         <v>45601.62434027778</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11018,7 +11018,7 @@
         <v>45357.30267361111</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11075,7 +11075,7 @@
         <v>45581</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>45581</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11189,7 +11189,7 @@
         <v>45035</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         <v>44937</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>44937.72628472222</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>45258.70151620371</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>44491.40493055555</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>44965.57659722222</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11536,7 +11536,7 @@
         <v>45846.3959375</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
         <v>44883.62292824074</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11650,7 +11650,7 @@
         <v>44454.49141203704</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11707,7 +11707,7 @@
         <v>45790.56094907408</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11764,7 +11764,7 @@
         <v>45699.88890046296</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11821,7 +11821,7 @@
         <v>45924.46423611111</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11878,7 +11878,7 @@
         <v>45926.64467592593</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11935,7 +11935,7 @@
         <v>45926.64569444444</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11992,7 +11992,7 @@
         <v>45176</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12049,7 +12049,7 @@
         <v>45205.41054398148</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12111,7 +12111,7 @@
         <v>45926.63296296296</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12168,7 +12168,7 @@
         <v>45926.62104166667</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12225,7 +12225,7 @@
         <v>44979.48650462963</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12282,7 +12282,7 @@
         <v>45929.46962962963</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12339,7 +12339,7 @@
         <v>45929.46505787037</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12396,7 +12396,7 @@
         <v>45926</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12453,7 +12453,7 @@
         <v>45926.625</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         <v>45099.60927083333</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12567,7 +12567,7 @@
         <v>44942</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12624,7 +12624,7 @@
         <v>45354</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12681,7 +12681,7 @@
         <v>44896</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12738,7 +12738,7 @@
         <v>45876</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12795,7 +12795,7 @@
         <v>45934.78538194444</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12852,7 +12852,7 @@
         <v>45093</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12909,7 +12909,7 @@
         <v>45093</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12966,7 +12966,7 @@
         <v>44585</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13023,7 +13023,7 @@
         <v>44903</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13080,7 +13080,7 @@
         <v>45887.65681712963</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13137,7 +13137,7 @@
         <v>45944.35180555555</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13194,7 +13194,7 @@
         <v>44985</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13251,7 +13251,7 @@
         <v>45946.50857638889</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13308,7 +13308,7 @@
         <v>45481.61375</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13365,7 +13365,7 @@
         <v>45950.58934027778</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13422,7 +13422,7 @@
         <v>45228.75215277778</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13479,7 +13479,7 @@
         <v>45167</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13536,7 +13536,7 @@
         <v>44916</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13593,7 +13593,7 @@
         <v>44897</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13650,7 +13650,7 @@
         <v>44463</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13712,7 +13712,7 @@
         <v>45170</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13769,7 +13769,7 @@
         <v>45761.68189814815</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         <v>45411</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13883,7 +13883,7 @@
         <v>45685.3190625</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13940,7 +13940,7 @@
         <v>45685.3234837963</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13997,7 +13997,7 @@
         <v>45632.55439814815</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14054,7 +14054,7 @@
         <v>44852</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>45215.67923611111</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14168,7 +14168,7 @@
         <v>45352.4880787037</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14225,7 +14225,7 @@
         <v>45758.44194444444</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14282,7 +14282,7 @@
         <v>45258.70559027778</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14339,7 +14339,7 @@
         <v>44980</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14396,7 +14396,7 @@
         <v>44587</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14453,7 +14453,7 @@
         <v>45973.68703703704</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>45972.46515046297</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>45569.31166666667</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>44725</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>44321</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14738,7 +14738,7 @@
         <v>45698.95604166666</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
         <v>45581</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14852,7 +14852,7 @@
         <v>45565.84452546296</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>45040</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14971,7 +14971,7 @@
         <v>45986.62471064815</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15028,7 +15028,7 @@
         <v>45986.63265046296</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15085,7 +15085,7 @@
         <v>45986.62858796296</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15142,7 +15142,7 @@
         <v>45986.6403125</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15199,7 +15199,7 @@
         <v>45989.58854166666</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>45992.67606481481</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15318,7 +15318,7 @@
         <v>45708.38859953704</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15375,7 +15375,7 @@
         <v>45992.67703703704</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15432,7 +15432,7 @@
         <v>44728</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15489,7 +15489,7 @@
         <v>45339</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15546,7 +15546,7 @@
         <v>44652.90847222223</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15603,7 +15603,7 @@
         <v>45036</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15660,7 +15660,7 @@
         <v>45743.5756712963</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15717,7 +15717,7 @@
         <v>45999.59362268518</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15779,7 +15779,7 @@
         <v>45999.60096064815</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15841,7 +15841,7 @@
         <v>45740</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15898,7 +15898,7 @@
         <v>45740</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15955,7 +15955,7 @@
         <v>44970</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16012,7 +16012,7 @@
         <v>46000</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16069,7 +16069,7 @@
         <v>44922</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16126,7 +16126,7 @@
         <v>45195</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16183,7 +16183,7 @@
         <v>44972</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16240,7 +16240,7 @@
         <v>45698.96422453703</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16297,7 +16297,7 @@
         <v>44883</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16354,7 +16354,7 @@
         <v>46006.59824074074</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16411,7 +16411,7 @@
         <v>46049.33</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16468,7 +16468,7 @@
         <v>45433.5965625</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16525,7 +16525,7 @@
         <v>46006.5808912037</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16582,7 +16582,7 @@
         <v>46006.58912037037</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16639,7 +16639,7 @@
         <v>45183.32618055555</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16696,7 +16696,7 @@
         <v>45628.54432870371</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16753,7 +16753,7 @@
         <v>45601.62701388889</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>46006.59519675926</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         <v>44777</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16924,7 +16924,7 @@
         <v>44899.50475694444</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16981,7 +16981,7 @@
         <v>45404.60186342592</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17038,7 +17038,7 @@
         <v>45215.49336805556</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17095,7 +17095,7 @@
         <v>46055</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17152,7 +17152,7 @@
         <v>44953</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17209,7 +17209,7 @@
         <v>46055</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         <v>44830</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17323,7 +17323,7 @@
         <v>46055</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17380,7 +17380,7 @@
         <v>45257</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17437,7 +17437,7 @@
         <v>44463</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17499,7 +17499,7 @@
         <v>46014.64821759259</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17556,7 +17556,7 @@
         <v>44613.69353009259</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>45569.32538194444</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>45569.32959490741</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17737,7 +17737,7 @@
         <v>45063.3709375</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17794,7 +17794,7 @@
         <v>45394.42204861111</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17851,7 +17851,7 @@
         <v>45667.57810185185</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17908,7 +17908,7 @@
         <v>45750.58451388889</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>45758.44706018519</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>45133</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>46020.3633912037</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>46020.83644675926</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>46018.66457175926</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>46019.556875</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>46019.56672453704</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>45063</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>45546.39056712963</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>45546.42262731482</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>46020.3581712963</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18592,7 +18592,7 @@
         <v>45719.61589120371</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>44575</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         <v>46020.84125</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
         <v>46019.55893518519</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18820,7 +18820,7 @@
         <v>45173</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18877,7 +18877,7 @@
         <v>44722</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18934,7 +18934,7 @@
         <v>46066</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18991,7 +18991,7 @@
         <v>46066</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19048,7 +19048,7 @@
         <v>46027.50201388889</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19105,7 +19105,7 @@
         <v>45063</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>46027.49337962963</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>46066</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>45705.83746527778</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19333,7 +19333,7 @@
         <v>45705.84123842593</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19390,7 +19390,7 @@
         <v>46066</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19447,7 +19447,7 @@
         <v>46027.46884259259</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19504,7 +19504,7 @@
         <v>45195.63581018519</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19561,7 +19561,7 @@
         <v>45629.38939814815</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19618,7 +19618,7 @@
         <v>44949.34574074074</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         <v>45639</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19732,7 +19732,7 @@
         <v>45218</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19794,7 +19794,7 @@
         <v>46029.46594907407</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19856,7 +19856,7 @@
         <v>44918.57138888889</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19913,7 +19913,7 @@
         <v>45719.60015046296</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19970,7 +19970,7 @@
         <v>46027.44552083333</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20027,7 +20027,7 @@
         <v>44419</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20084,7 +20084,7 @@
         <v>45063.36952546296</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20141,7 +20141,7 @@
         <v>45085.4334837963</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20198,7 +20198,7 @@
         <v>45009</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20255,7 +20255,7 @@
         <v>45740.49797453704</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20312,7 +20312,7 @@
         <v>44952</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20369,7 +20369,7 @@
         <v>45204.59921296296</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20426,7 +20426,7 @@
         <v>45093</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20483,7 +20483,7 @@
         <v>45708.39165509259</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20540,7 +20540,7 @@
         <v>45211.3163425926</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20597,7 +20597,7 @@
         <v>45211</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20654,7 +20654,7 @@
         <v>45236.58795138889</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20711,7 +20711,7 @@
         <v>45193</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20768,7 +20768,7 @@
         <v>45202.58068287037</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20825,7 +20825,7 @@
         <v>45526.35109953704</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20882,7 +20882,7 @@
         <v>44378.65817129629</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20939,7 +20939,7 @@
         <v>45597.58015046296</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21001,7 +21001,7 @@
         <v>45667.69849537037</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21058,7 +21058,7 @@
         <v>45699</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         <v>45317.41827546297</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21172,7 +21172,7 @@
         <v>45249</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21229,7 +21229,7 @@
         <v>45173.36244212963</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21286,7 +21286,7 @@
         <v>45432.6571875</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21343,7 +21343,7 @@
         <v>44910.45991898148</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21400,7 +21400,7 @@
         <v>44616.56741898148</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21457,7 +21457,7 @@
         <v>45062</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21514,7 +21514,7 @@
         <v>45432.65179398148</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21571,7 +21571,7 @@
         <v>45755.6821875</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21628,7 +21628,7 @@
         <v>45588.41420138889</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21685,7 +21685,7 @@
         <v>45404.37293981481</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21742,7 +21742,7 @@
         <v>44518</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21799,7 +21799,7 @@
         <v>44818.60185185185</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21856,7 +21856,7 @@
         <v>45719.60188657408</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
         <v>45287</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21970,7 +21970,7 @@
         <v>45667.45136574074</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22027,7 +22027,7 @@
         <v>45628.4957175926</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22084,7 +22084,7 @@
         <v>45698.96091435185</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22141,7 +22141,7 @@
         <v>45782.48217592593</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22198,7 +22198,7 @@
         <v>45782.47664351852</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22255,7 +22255,7 @@
         <v>45782.49773148148</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22312,7 +22312,7 @@
         <v>45782.60745370371</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22369,7 +22369,7 @@
         <v>45782.63564814815</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22426,7 +22426,7 @@
         <v>45782.64457175926</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         <v>45782.65953703703</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22540,7 +22540,7 @@
         <v>45782.64012731481</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22597,7 +22597,7 @@
         <v>45247</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22654,7 +22654,7 @@
         <v>45793.58547453704</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22711,7 +22711,7 @@
         <v>45793.60377314815</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22768,7 +22768,7 @@
         <v>45793.57041666667</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
         <v>45793.29696759259</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22882,7 +22882,7 @@
         <v>45792.62280092593</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>45793.29298611111</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         <v>45797.60491898148</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23053,7 +23053,7 @@
         <v>45797.61721064815</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23110,7 +23110,7 @@
         <v>45797.60896990741</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23167,7 +23167,7 @@
         <v>45803.60685185185</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23224,7 +23224,7 @@
         <v>45310.56167824074</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23281,7 +23281,7 @@
         <v>45800.29532407408</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>

--- a/Översikt VALDEMARSVIK.xlsx
+++ b/Översikt VALDEMARSVIK.xlsx
@@ -575,7 +575,7 @@
         <v>45569</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>45238</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>45569</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>45926.62841435185</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>45253</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         <v>45699.88070601852</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>44712</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>45609.70267361111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1307,7 +1307,7 @@
         <v>44571</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         <v>45740.55563657408</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>46018.65306712963</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>44770</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         <v>44952</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>45463</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         <v>44994</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1914,7 +1914,7 @@
         <v>45331</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>45043</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>44293</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>44883</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>45790</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         <v>44410</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2413,7 +2413,7 @@
         <v>44378</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         <v>44613.79927083333</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         <v>44749.70993055555</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>44869.4808449074</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>44687</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         <v>44281.03122685185</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>44417</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         <v>44417</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>44536</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2926,7 +2926,7 @@
         <v>44852</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>44357</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3040,7 +3040,7 @@
         <v>44613</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
         <v>44726</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3154,7 +3154,7 @@
         <v>44531.66954861111</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3211,7 +3211,7 @@
         <v>44278.7549537037</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         <v>44603.67851851852</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3325,7 +3325,7 @@
         <v>44287</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3382,7 +3382,7 @@
         <v>44531</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3439,7 +3439,7 @@
         <v>44881.90741898148</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3496,7 +3496,7 @@
         <v>44362</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
         <v>44273</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>44326</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>44281</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>44613.80142361111</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>44564.54900462963</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>44613.69971064815</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         <v>44636</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>44658</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
         <v>44573.57579861111</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         <v>44656</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         <v>44463</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>44315</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>44629</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>44417</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>44573</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>44712</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>44593</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4527,7 +4527,7 @@
         <v>44882</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>44881.90604166667</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>44454</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>44417</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>44308</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>44322</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>44603</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         <v>44480.65591435185</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>44487</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>44603.67640046297</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>44603.70393518519</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>44256</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         <v>44728.68993055556</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>44371</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5340,7 +5340,7 @@
         <v>44279.75896990741</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>44573</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5454,7 +5454,7 @@
         <v>45271</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5516,7 +5516,7 @@
         <v>44799.58418981481</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5573,7 +5573,7 @@
         <v>45339</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5630,7 +5630,7 @@
         <v>45719.60015046296</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
         <v>45344</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5744,7 +5744,7 @@
         <v>45254</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5801,7 +5801,7 @@
         <v>45755.6821875</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>45394.42204861111</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>44883.62292824074</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>45287</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6029,7 +6029,7 @@
         <v>45258.70559027778</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>45588.41420138889</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
         <v>44833</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
         <v>44922</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6257,7 +6257,7 @@
         <v>44972</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6314,7 +6314,7 @@
         <v>44899.50475694444</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6371,7 +6371,7 @@
         <v>44592.57141203704</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6428,7 +6428,7 @@
         <v>45590.39403935185</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6485,7 +6485,7 @@
         <v>44918.57138888889</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>44419</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6599,7 +6599,7 @@
         <v>45887.65681712963</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6656,7 +6656,7 @@
         <v>44616.56741898148</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6713,7 +6713,7 @@
         <v>45742.44043981482</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6770,7 +6770,7 @@
         <v>45818.46033564815</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6827,7 +6827,7 @@
         <v>45323</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
         <v>45546.42262731482</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6941,7 +6941,7 @@
         <v>45750.58451388889</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6998,7 +6998,7 @@
         <v>45568</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7055,7 +7055,7 @@
         <v>45133</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>45890.66296296296</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
         <v>45432.65179398148</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7226,7 +7226,7 @@
         <v>45890.64196759259</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>45890.64568287037</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7340,7 +7340,7 @@
         <v>45890.64841435185</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         <v>45890.65094907407</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7454,7 +7454,7 @@
         <v>45782</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7511,7 +7511,7 @@
         <v>45890.63361111111</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7568,7 +7568,7 @@
         <v>45708.39165509259</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7625,7 +7625,7 @@
         <v>45009</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7682,7 +7682,7 @@
         <v>45733</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7739,7 +7739,7 @@
         <v>45740</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>44942</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>45546.39056712963</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>44957</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
         <v>45195</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8044,7 +8044,7 @@
         <v>45891</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8101,7 +8101,7 @@
         <v>45891</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8158,7 +8158,7 @@
         <v>45897.39159722222</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8215,7 +8215,7 @@
         <v>45897.44991898148</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>45597.58015046296</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8334,7 +8334,7 @@
         <v>45902.72295138889</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8391,7 +8391,7 @@
         <v>45901</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         <v>45902.72454861111</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8505,7 +8505,7 @@
         <v>45901.56068287037</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8562,7 +8562,7 @@
         <v>44970</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8619,7 +8619,7 @@
         <v>44970</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8676,7 +8676,7 @@
         <v>45902.70725694444</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
         <v>45902.7112037037</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8790,7 +8790,7 @@
         <v>45902.71890046296</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8847,7 +8847,7 @@
         <v>45902.72226851852</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8904,7 +8904,7 @@
         <v>45902.72586805555</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8961,7 +8961,7 @@
         <v>45902.71751157408</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9018,7 +9018,7 @@
         <v>45902.71278935186</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9075,7 +9075,7 @@
         <v>45902.71516203704</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>45908.48112268518</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         <v>44897</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9246,7 +9246,7 @@
         <v>44777</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9303,7 +9303,7 @@
         <v>45908.48502314815</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>45601.62434027778</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>44852</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
         <v>45085.4334837963</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>45840.71472222222</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>45257</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         <v>45624.6911574074</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9702,7 +9702,7 @@
         <v>44952</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>44417</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>44903</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>44953</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9930,7 +9930,7 @@
         <v>44518</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9987,7 +9987,7 @@
         <v>45667.45136574074</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         <v>44463</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10106,7 +10106,7 @@
         <v>44491.40493055555</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10163,7 +10163,7 @@
         <v>45020.56628472222</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10220,7 +10220,7 @@
         <v>45526.35109953704</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10277,7 +10277,7 @@
         <v>44722</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10334,7 +10334,7 @@
         <v>45667.57810185185</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10391,7 +10391,7 @@
         <v>44321</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10448,7 +10448,7 @@
         <v>45846.3959375</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10505,7 +10505,7 @@
         <v>45699.88890046296</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10562,7 +10562,7 @@
         <v>45685.3190625</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10619,7 +10619,7 @@
         <v>45685.3234837963</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10676,7 +10676,7 @@
         <v>45758.44706018519</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10733,7 +10733,7 @@
         <v>45639</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10790,7 +10790,7 @@
         <v>45790.56094907408</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10847,7 +10847,7 @@
         <v>44454.49141203704</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10904,7 +10904,7 @@
         <v>45158</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10961,7 +10961,7 @@
         <v>45667.56173611111</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11018,7 +11018,7 @@
         <v>45189</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11075,7 +11075,7 @@
         <v>45924.46423611111</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>45926.62104166667</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11189,7 +11189,7 @@
         <v>45698.95604166666</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11246,7 +11246,7 @@
         <v>45698.96091435185</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11303,7 +11303,7 @@
         <v>45926</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11360,7 +11360,7 @@
         <v>45926.63296296296</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11417,7 +11417,7 @@
         <v>45926.625</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11474,7 +11474,7 @@
         <v>45926.64467592593</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11531,7 +11531,7 @@
         <v>45926.64569444444</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11588,7 +11588,7 @@
         <v>45929.46962962963</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11645,7 +11645,7 @@
         <v>45929.46505787037</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11702,7 +11702,7 @@
         <v>45876</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11759,7 +11759,7 @@
         <v>45667.48078703704</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11816,7 +11816,7 @@
         <v>45667.49322916667</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11873,7 +11873,7 @@
         <v>45228.75215277778</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11930,7 +11930,7 @@
         <v>45934.78538194444</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11987,7 +11987,7 @@
         <v>45685.7069212963</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12044,7 +12044,7 @@
         <v>45687.62237268518</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>45740.49797453704</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12158,7 +12158,7 @@
         <v>45761.68189814815</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12215,7 +12215,7 @@
         <v>45761.47806712963</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12272,7 +12272,7 @@
         <v>45063</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12329,7 +12329,7 @@
         <v>45215.67923611111</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         <v>44883</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12443,7 +12443,7 @@
         <v>45204.59921296296</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12500,7 +12500,7 @@
         <v>45249</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>44910.45991898148</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>45944.35180555555</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>44585</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>45946.50857638889</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>45705.83746527778</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12842,7 +12842,7 @@
         <v>45705.84123842593</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>44916</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>45090.31699074074</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>44593</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>45950.58934027778</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>45090.31920138889</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>45411</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>45740</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>45740</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>45218</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13417,7 +13417,7 @@
         <v>45093</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>45569.31166666667</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13531,7 +13531,7 @@
         <v>45761.47571759259</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         <v>45581</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
         <v>44607.71590277777</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>45354</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>44818.60185185185</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>45062</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>45972.46515046297</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>45481.61375</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>45973.68703703704</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>45099.60927083333</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>44937</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14158,7 +14158,7 @@
         <v>44937.72628472222</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14215,7 +14215,7 @@
         <v>45176.67278935185</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14272,7 +14272,7 @@
         <v>45433.60840277778</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
         <v>45404.37293981481</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>45986.62858796296</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>45986.6403125</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14500,7 +14500,7 @@
         <v>45569.32538194444</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14562,7 +14562,7 @@
         <v>45569.32959490741</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>45590.40115740741</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>45667.471875</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14738,7 +14738,7 @@
         <v>45698.96422453703</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
         <v>45986.62471064815</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14852,7 +14852,7 @@
         <v>45986.63265046296</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>45629.38939814815</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14966,7 +14966,7 @@
         <v>45036</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15023,7 +15023,7 @@
         <v>45719.6859375</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15080,7 +15080,7 @@
         <v>45992.67703703704</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>45992.67606481481</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15194,7 +15194,7 @@
         <v>45989.58854166666</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15256,7 +15256,7 @@
         <v>45628.4957175926</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15313,7 +15313,7 @@
         <v>45628.54432870371</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15370,7 +15370,7 @@
         <v>45597.58349537037</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15432,7 +15432,7 @@
         <v>45148.63856481481</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15489,7 +15489,7 @@
         <v>45173.36244212963</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15546,7 +15546,7 @@
         <v>45601.42112268518</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15603,7 +15603,7 @@
         <v>44587</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15660,7 +15660,7 @@
         <v>45173</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15717,7 +15717,7 @@
         <v>44575</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15774,7 +15774,7 @@
         <v>44587</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15831,7 +15831,7 @@
         <v>45999.60096064815</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15893,7 +15893,7 @@
         <v>45743.5756712963</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15950,7 +15950,7 @@
         <v>45999.59362268518</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16012,7 +16012,7 @@
         <v>46000</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16069,7 +16069,7 @@
         <v>45167</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16126,7 +16126,7 @@
         <v>44573</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16183,7 +16183,7 @@
         <v>45667.50155092592</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16240,7 +16240,7 @@
         <v>45667.56914351852</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16297,7 +16297,7 @@
         <v>45628.54787037037</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16354,7 +16354,7 @@
         <v>45204.59734953703</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16411,7 +16411,7 @@
         <v>46006.58912037037</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16468,7 +16468,7 @@
         <v>46006.59519675926</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16525,7 +16525,7 @@
         <v>46006.5808912037</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16582,7 +16582,7 @@
         <v>45211.3163425926</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16639,7 +16639,7 @@
         <v>45211</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16696,7 +16696,7 @@
         <v>45195.63581018519</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16753,7 +16753,7 @@
         <v>46006.59824074074</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>46049.33</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         <v>44728</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16924,7 +16924,7 @@
         <v>44725</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16981,7 +16981,7 @@
         <v>45183.32618055555</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17038,7 +17038,7 @@
         <v>45193</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17095,7 +17095,7 @@
         <v>45238.85070601852</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17152,7 +17152,7 @@
         <v>46055</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17209,7 +17209,7 @@
         <v>46055</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         <v>46055</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17323,7 +17323,7 @@
         <v>46014.64821759259</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17380,7 +17380,7 @@
         <v>45183</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17437,7 +17437,7 @@
         <v>45183</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17494,7 +17494,7 @@
         <v>45581</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>44749</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17608,7 +17608,7 @@
         <v>45719.61589120371</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17665,7 +17665,7 @@
         <v>45236.58795138889</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17722,7 +17722,7 @@
         <v>46019.55893518519</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17779,7 +17779,7 @@
         <v>46020.3581712963</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17836,7 +17836,7 @@
         <v>46018.66457175926</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17893,7 +17893,7 @@
         <v>46020.3633912037</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17950,7 +17950,7 @@
         <v>45215.49336805556</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18007,7 +18007,7 @@
         <v>46019.556875</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18064,7 +18064,7 @@
         <v>46019.56672453704</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18121,7 +18121,7 @@
         <v>46020.83644675926</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18178,7 +18178,7 @@
         <v>44830</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         <v>46020.84125</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18292,7 +18292,7 @@
         <v>44974</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18349,7 +18349,7 @@
         <v>45758.44194444444</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18406,7 +18406,7 @@
         <v>46066</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18463,7 +18463,7 @@
         <v>46066</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18520,7 +18520,7 @@
         <v>46066</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18577,7 +18577,7 @@
         <v>46066</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18634,7 +18634,7 @@
         <v>46027.49337962963</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18691,7 +18691,7 @@
         <v>46027.46884259259</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18748,7 +18748,7 @@
         <v>46027.50201388889</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18805,7 +18805,7 @@
         <v>45170</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18862,7 +18862,7 @@
         <v>46029.46594907407</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18924,7 +18924,7 @@
         <v>44894</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18981,7 +18981,7 @@
         <v>45063.3709375</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19038,7 +19038,7 @@
         <v>44573</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19095,7 +19095,7 @@
         <v>46077.66243055555</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19152,7 +19152,7 @@
         <v>45336.62203703704</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19209,7 +19209,7 @@
         <v>44463</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19271,7 +19271,7 @@
         <v>45036</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19328,7 +19328,7 @@
         <v>46027.44552083333</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19385,7 +19385,7 @@
         <v>44613.69353009259</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19442,7 +19442,7 @@
         <v>44454</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19499,7 +19499,7 @@
         <v>45093</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19556,7 +19556,7 @@
         <v>44949</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19613,7 +19613,7 @@
         <v>44378.65817129629</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19670,7 +19670,7 @@
         <v>44949.34574074074</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19727,7 +19727,7 @@
         <v>44463</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19789,7 +19789,7 @@
         <v>44753</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19846,7 +19846,7 @@
         <v>45433.5965625</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19903,7 +19903,7 @@
         <v>44652.90847222223</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19960,7 +19960,7 @@
         <v>45035</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20022,7 +20022,7 @@
         <v>45581</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20079,7 +20079,7 @@
         <v>45581</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20136,7 +20136,7 @@
         <v>45063.36952546296</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20193,7 +20193,7 @@
         <v>45258.70151620371</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20250,7 +20250,7 @@
         <v>44945</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20307,7 +20307,7 @@
         <v>45601.62701388889</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20364,7 +20364,7 @@
         <v>45719.60188657408</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20421,7 +20421,7 @@
         <v>44985</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20478,7 +20478,7 @@
         <v>45040</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20540,7 +20540,7 @@
         <v>45404.60186342592</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20597,7 +20597,7 @@
         <v>44980</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20654,7 +20654,7 @@
         <v>45432.6571875</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20711,7 +20711,7 @@
         <v>45699</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20768,7 +20768,7 @@
         <v>45028</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20825,7 +20825,7 @@
         <v>45667.69849537037</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20882,7 +20882,7 @@
         <v>44749.69370370371</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20939,7 +20939,7 @@
         <v>45352.4880787037</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20996,7 +20996,7 @@
         <v>45093</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21053,7 +21053,7 @@
         <v>45205.41054398148</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         <v>45063</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21172,7 +21172,7 @@
         <v>44601.54333333333</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21229,7 +21229,7 @@
         <v>45708.38859953704</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21286,7 +21286,7 @@
         <v>44690</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21343,7 +21343,7 @@
         <v>45632.55439814815</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21400,7 +21400,7 @@
         <v>45176</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21457,7 +21457,7 @@
         <v>45202</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21514,7 +21514,7 @@
         <v>44965.57659722222</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21571,7 +21571,7 @@
         <v>44896</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21628,7 +21628,7 @@
         <v>45540.64366898148</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21685,7 +21685,7 @@
         <v>44949.35385416666</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21742,7 +21742,7 @@
         <v>45357.30267361111</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21799,7 +21799,7 @@
         <v>45565.84452546296</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21856,7 +21856,7 @@
         <v>45093</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
         <v>45202.58068287037</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21970,7 +21970,7 @@
         <v>45317.41827546297</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22027,7 +22027,7 @@
         <v>45404.35048611111</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22084,7 +22084,7 @@
         <v>44979.48650462963</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22141,7 +22141,7 @@
         <v>45667.58902777778</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22198,7 +22198,7 @@
         <v>45782.48217592593</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22255,7 +22255,7 @@
         <v>45782.49773148148</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22312,7 +22312,7 @@
         <v>45782.64012731481</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22369,7 +22369,7 @@
         <v>45782.60745370371</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22426,7 +22426,7 @@
         <v>45782.64457175926</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         <v>45782.65953703703</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22540,7 +22540,7 @@
         <v>45782.47664351852</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22597,7 +22597,7 @@
         <v>45782.63564814815</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22654,7 +22654,7 @@
         <v>45247</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22711,7 +22711,7 @@
         <v>45792.62280092593</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22768,7 +22768,7 @@
         <v>45793.57041666667</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
         <v>45793.29298611111</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22882,7 +22882,7 @@
         <v>45793.60377314815</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>45793.29696759259</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         <v>45793.58547453704</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23053,7 +23053,7 @@
         <v>45797.61721064815</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23110,7 +23110,7 @@
         <v>45797.60491898148</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23167,7 +23167,7 @@
         <v>45797.60896990741</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23224,7 +23224,7 @@
         <v>45310.56167824074</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23281,7 +23281,7 @@
         <v>45800.29532407408</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23338,7 +23338,7 @@
         <v>45803.60685185185</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>

--- a/Översikt VALDEMARSVIK.xlsx
+++ b/Översikt VALDEMARSVIK.xlsx
@@ -575,7 +575,7 @@
         <v>45569</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>45238</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>45569</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>45926.62841435185</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>45253</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         <v>45699.88070601852</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>44712</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>45609.70267361111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1307,7 +1307,7 @@
         <v>44571</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         <v>45740.55563657408</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>46018.65306712963</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>44770</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         <v>44952</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>45463</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         <v>44994</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1914,7 +1914,7 @@
         <v>45331</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>45043</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>44293</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>44883</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>45790</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         <v>44410</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2413,7 +2413,7 @@
         <v>44378</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         <v>44613.79927083333</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         <v>44749.70993055555</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>44869.4808449074</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>44687</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         <v>44281.03122685185</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>44417</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         <v>44417</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>44536</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2926,7 +2926,7 @@
         <v>44852</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>44357</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3040,7 +3040,7 @@
         <v>44613</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
         <v>44726</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3154,7 +3154,7 @@
         <v>44531.66954861111</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3211,7 +3211,7 @@
         <v>44278.7549537037</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         <v>44603.67851851852</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3325,7 +3325,7 @@
         <v>44287</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3382,7 +3382,7 @@
         <v>44531</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3439,7 +3439,7 @@
         <v>44881.90741898148</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3496,7 +3496,7 @@
         <v>44362</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
         <v>44273</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>44326</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>44281</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>44613.80142361111</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>44564.54900462963</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>44613.69971064815</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         <v>44636</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>44658</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
         <v>44573.57579861111</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         <v>44656</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         <v>44463</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>44315</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>44629</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>44417</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>44573</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>44712</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>44593</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4527,7 +4527,7 @@
         <v>44882</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>44881.90604166667</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>44454</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>44417</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>44308</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>44322</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>44603</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         <v>44480.65591435185</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>44487</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>44603.67640046297</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>44603.70393518519</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>44256</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         <v>44728.68993055556</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>44371</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5340,7 +5340,7 @@
         <v>44279.75896990741</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>44573</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5454,7 +5454,7 @@
         <v>45271</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5516,7 +5516,7 @@
         <v>44799.58418981481</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5573,7 +5573,7 @@
         <v>45339</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5630,7 +5630,7 @@
         <v>45719.60015046296</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
         <v>45344</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5744,7 +5744,7 @@
         <v>45254</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5801,7 +5801,7 @@
         <v>45755.6821875</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>45394.42204861111</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>44883.62292824074</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>45287</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6029,7 +6029,7 @@
         <v>45258.70559027778</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>45588.41420138889</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
         <v>44833</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
         <v>44922</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6257,7 +6257,7 @@
         <v>44972</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6314,7 +6314,7 @@
         <v>44899.50475694444</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6371,7 +6371,7 @@
         <v>44592.57141203704</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6428,7 +6428,7 @@
         <v>45590.39403935185</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6485,7 +6485,7 @@
         <v>44918.57138888889</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>44419</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6599,7 +6599,7 @@
         <v>45887.65681712963</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6656,7 +6656,7 @@
         <v>44616.56741898148</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6713,7 +6713,7 @@
         <v>45742.44043981482</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6770,7 +6770,7 @@
         <v>45818.46033564815</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6827,7 +6827,7 @@
         <v>45323</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
         <v>45546.42262731482</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6941,7 +6941,7 @@
         <v>45750.58451388889</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6998,7 +6998,7 @@
         <v>45568</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7055,7 +7055,7 @@
         <v>45133</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>45890.66296296296</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
         <v>45432.65179398148</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7226,7 +7226,7 @@
         <v>45890.64196759259</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>45890.64568287037</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7340,7 +7340,7 @@
         <v>45890.64841435185</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         <v>45890.65094907407</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7454,7 +7454,7 @@
         <v>45782</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7511,7 +7511,7 @@
         <v>45890.63361111111</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7568,7 +7568,7 @@
         <v>45708.39165509259</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7625,7 +7625,7 @@
         <v>45009</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7682,7 +7682,7 @@
         <v>45733</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7739,7 +7739,7 @@
         <v>45740</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>44942</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>45546.39056712963</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>44957</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
         <v>45195</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8044,7 +8044,7 @@
         <v>45891</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8101,7 +8101,7 @@
         <v>45891</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8158,7 +8158,7 @@
         <v>45897.39159722222</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8215,7 +8215,7 @@
         <v>45897.44991898148</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>45597.58015046296</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8334,7 +8334,7 @@
         <v>45902.72295138889</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8391,7 +8391,7 @@
         <v>45901</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         <v>45902.72454861111</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8505,7 +8505,7 @@
         <v>45901.56068287037</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8562,7 +8562,7 @@
         <v>44970</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8619,7 +8619,7 @@
         <v>44970</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8676,7 +8676,7 @@
         <v>45902.70725694444</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
         <v>45902.7112037037</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8790,7 +8790,7 @@
         <v>45902.71890046296</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8847,7 +8847,7 @@
         <v>45902.72226851852</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8904,7 +8904,7 @@
         <v>45902.72586805555</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8961,7 +8961,7 @@
         <v>45902.71751157408</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9018,7 +9018,7 @@
         <v>45902.71278935186</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9075,7 +9075,7 @@
         <v>45902.71516203704</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>45908.48112268518</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         <v>44897</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9246,7 +9246,7 @@
         <v>44777</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9303,7 +9303,7 @@
         <v>45908.48502314815</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>45601.62434027778</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>44852</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
         <v>45085.4334837963</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>45840.71472222222</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>45257</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         <v>45624.6911574074</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9702,7 +9702,7 @@
         <v>44952</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>44417</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>44903</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>44953</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9930,7 +9930,7 @@
         <v>44518</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9987,7 +9987,7 @@
         <v>45667.45136574074</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         <v>44463</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10106,7 +10106,7 @@
         <v>44491.40493055555</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10163,7 +10163,7 @@
         <v>45020.56628472222</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10220,7 +10220,7 @@
         <v>45526.35109953704</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10277,7 +10277,7 @@
         <v>44722</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10334,7 +10334,7 @@
         <v>45667.57810185185</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10391,7 +10391,7 @@
         <v>44321</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10448,7 +10448,7 @@
         <v>45846.3959375</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10505,7 +10505,7 @@
         <v>45699.88890046296</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10562,7 +10562,7 @@
         <v>45685.3190625</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10619,7 +10619,7 @@
         <v>45685.3234837963</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10676,7 +10676,7 @@
         <v>45758.44706018519</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10733,7 +10733,7 @@
         <v>45639</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10790,7 +10790,7 @@
         <v>45790.56094907408</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10847,7 +10847,7 @@
         <v>44454.49141203704</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10904,7 +10904,7 @@
         <v>45158</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10961,7 +10961,7 @@
         <v>45667.56173611111</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11018,7 +11018,7 @@
         <v>45189</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11075,7 +11075,7 @@
         <v>45924.46423611111</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>45926.62104166667</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11189,7 +11189,7 @@
         <v>45698.95604166666</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11246,7 +11246,7 @@
         <v>45698.96091435185</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11303,7 +11303,7 @@
         <v>45926</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11360,7 +11360,7 @@
         <v>45926.63296296296</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11417,7 +11417,7 @@
         <v>45926.625</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11474,7 +11474,7 @@
         <v>45926.64467592593</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11531,7 +11531,7 @@
         <v>45926.64569444444</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11588,7 +11588,7 @@
         <v>45929.46962962963</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11645,7 +11645,7 @@
         <v>45929.46505787037</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11702,7 +11702,7 @@
         <v>45876</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11759,7 +11759,7 @@
         <v>45667.48078703704</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11816,7 +11816,7 @@
         <v>45667.49322916667</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11873,7 +11873,7 @@
         <v>45228.75215277778</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11930,7 +11930,7 @@
         <v>45934.78538194444</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11987,7 +11987,7 @@
         <v>45685.7069212963</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12044,7 +12044,7 @@
         <v>45687.62237268518</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>45740.49797453704</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12158,7 +12158,7 @@
         <v>45761.68189814815</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12215,7 +12215,7 @@
         <v>45761.47806712963</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12272,7 +12272,7 @@
         <v>45063</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12329,7 +12329,7 @@
         <v>45215.67923611111</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         <v>44883</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12443,7 +12443,7 @@
         <v>45204.59921296296</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12500,7 +12500,7 @@
         <v>45249</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>44910.45991898148</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>45944.35180555555</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>44585</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>45946.50857638889</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>45705.83746527778</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12842,7 +12842,7 @@
         <v>45705.84123842593</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>44916</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>45090.31699074074</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>44593</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>45950.58934027778</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>45090.31920138889</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>45411</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>45740</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>45740</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>45218</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13417,7 +13417,7 @@
         <v>45093</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>45569.31166666667</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13531,7 +13531,7 @@
         <v>45761.47571759259</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         <v>45581</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
         <v>44607.71590277777</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>45354</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>44818.60185185185</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>45062</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>45972.46515046297</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>45481.61375</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>45973.68703703704</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>45099.60927083333</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>44937</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14158,7 +14158,7 @@
         <v>44937.72628472222</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14215,7 +14215,7 @@
         <v>45176.67278935185</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14272,7 +14272,7 @@
         <v>45433.60840277778</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
         <v>45404.37293981481</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>45986.62858796296</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>45986.6403125</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14500,7 +14500,7 @@
         <v>45569.32538194444</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14562,7 +14562,7 @@
         <v>45569.32959490741</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>45590.40115740741</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>45667.471875</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14738,7 +14738,7 @@
         <v>45698.96422453703</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
         <v>45986.62471064815</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14852,7 +14852,7 @@
         <v>45986.63265046296</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>45629.38939814815</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14966,7 +14966,7 @@
         <v>45036</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15023,7 +15023,7 @@
         <v>45719.6859375</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15080,7 +15080,7 @@
         <v>45992.67703703704</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>45992.67606481481</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15194,7 +15194,7 @@
         <v>45989.58854166666</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15256,7 +15256,7 @@
         <v>45628.4957175926</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15313,7 +15313,7 @@
         <v>45628.54432870371</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15370,7 +15370,7 @@
         <v>45597.58349537037</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15432,7 +15432,7 @@
         <v>45148.63856481481</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15489,7 +15489,7 @@
         <v>45173.36244212963</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15546,7 +15546,7 @@
         <v>45601.42112268518</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15603,7 +15603,7 @@
         <v>44587</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15660,7 +15660,7 @@
         <v>45173</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15717,7 +15717,7 @@
         <v>44575</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15774,7 +15774,7 @@
         <v>44587</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15831,7 +15831,7 @@
         <v>45999.60096064815</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15893,7 +15893,7 @@
         <v>45743.5756712963</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15950,7 +15950,7 @@
         <v>45999.59362268518</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16012,7 +16012,7 @@
         <v>46000</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16069,7 +16069,7 @@
         <v>45167</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16126,7 +16126,7 @@
         <v>44573</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16183,7 +16183,7 @@
         <v>45667.50155092592</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16240,7 +16240,7 @@
         <v>45667.56914351852</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16297,7 +16297,7 @@
         <v>45628.54787037037</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16354,7 +16354,7 @@
         <v>45204.59734953703</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16411,7 +16411,7 @@
         <v>46006.58912037037</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16468,7 +16468,7 @@
         <v>46006.59519675926</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16525,7 +16525,7 @@
         <v>46006.5808912037</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16582,7 +16582,7 @@
         <v>45211.3163425926</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16639,7 +16639,7 @@
         <v>45211</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16696,7 +16696,7 @@
         <v>45195.63581018519</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16753,7 +16753,7 @@
         <v>46006.59824074074</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>46049.33</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         <v>44728</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16924,7 +16924,7 @@
         <v>44725</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16981,7 +16981,7 @@
         <v>45183.32618055555</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17038,7 +17038,7 @@
         <v>45193</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17095,7 +17095,7 @@
         <v>45238.85070601852</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17152,7 +17152,7 @@
         <v>46055</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17209,7 +17209,7 @@
         <v>46055</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         <v>46055</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17323,7 +17323,7 @@
         <v>46014.64821759259</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17380,7 +17380,7 @@
         <v>45183</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17437,7 +17437,7 @@
         <v>45183</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17494,7 +17494,7 @@
         <v>45581</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>44749</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17608,7 +17608,7 @@
         <v>45719.61589120371</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17665,7 +17665,7 @@
         <v>45236.58795138889</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17722,7 +17722,7 @@
         <v>46019.55893518519</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17779,7 +17779,7 @@
         <v>46020.3581712963</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17836,7 +17836,7 @@
         <v>46018.66457175926</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17893,7 +17893,7 @@
         <v>46020.3633912037</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17950,7 +17950,7 @@
         <v>45215.49336805556</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18007,7 +18007,7 @@
         <v>46019.556875</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18064,7 +18064,7 @@
         <v>46019.56672453704</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18121,7 +18121,7 @@
         <v>46020.83644675926</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18178,7 +18178,7 @@
         <v>44830</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         <v>46020.84125</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18292,7 +18292,7 @@
         <v>44974</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18349,7 +18349,7 @@
         <v>45758.44194444444</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18406,7 +18406,7 @@
         <v>46066</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18463,7 +18463,7 @@
         <v>46066</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18520,7 +18520,7 @@
         <v>46066</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18577,7 +18577,7 @@
         <v>46066</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18634,7 +18634,7 @@
         <v>46027.49337962963</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18691,7 +18691,7 @@
         <v>46027.46884259259</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18748,7 +18748,7 @@
         <v>46027.50201388889</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18805,7 +18805,7 @@
         <v>45170</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18862,7 +18862,7 @@
         <v>46029.46594907407</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18924,7 +18924,7 @@
         <v>44894</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18981,7 +18981,7 @@
         <v>45063.3709375</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19038,7 +19038,7 @@
         <v>44573</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19095,7 +19095,7 @@
         <v>46077.66243055555</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19152,7 +19152,7 @@
         <v>45336.62203703704</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19209,7 +19209,7 @@
         <v>44463</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19271,7 +19271,7 @@
         <v>45036</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19328,7 +19328,7 @@
         <v>46027.44552083333</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19385,7 +19385,7 @@
         <v>44613.69353009259</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19442,7 +19442,7 @@
         <v>44454</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19499,7 +19499,7 @@
         <v>45093</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19556,7 +19556,7 @@
         <v>44949</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19613,7 +19613,7 @@
         <v>44378.65817129629</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19670,7 +19670,7 @@
         <v>44949.34574074074</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19727,7 +19727,7 @@
         <v>44463</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19789,7 +19789,7 @@
         <v>44753</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19846,7 +19846,7 @@
         <v>45433.5965625</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19903,7 +19903,7 @@
         <v>44652.90847222223</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19960,7 +19960,7 @@
         <v>45035</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20022,7 +20022,7 @@
         <v>45581</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20079,7 +20079,7 @@
         <v>45581</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20136,7 +20136,7 @@
         <v>45063.36952546296</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20193,7 +20193,7 @@
         <v>45258.70151620371</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20250,7 +20250,7 @@
         <v>44945</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20307,7 +20307,7 @@
         <v>45601.62701388889</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20364,7 +20364,7 @@
         <v>45719.60188657408</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20421,7 +20421,7 @@
         <v>44985</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20478,7 +20478,7 @@
         <v>45040</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20540,7 +20540,7 @@
         <v>45404.60186342592</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20597,7 +20597,7 @@
         <v>44980</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20654,7 +20654,7 @@
         <v>45432.6571875</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20711,7 +20711,7 @@
         <v>45699</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20768,7 +20768,7 @@
         <v>45028</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20825,7 +20825,7 @@
         <v>45667.69849537037</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20882,7 +20882,7 @@
         <v>44749.69370370371</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20939,7 +20939,7 @@
         <v>45352.4880787037</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20996,7 +20996,7 @@
         <v>45093</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21053,7 +21053,7 @@
         <v>45205.41054398148</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         <v>45063</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21172,7 +21172,7 @@
         <v>44601.54333333333</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21229,7 +21229,7 @@
         <v>45708.38859953704</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21286,7 +21286,7 @@
         <v>44690</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21343,7 +21343,7 @@
         <v>45632.55439814815</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21400,7 +21400,7 @@
         <v>45176</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21457,7 +21457,7 @@
         <v>45202</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21514,7 +21514,7 @@
         <v>44965.57659722222</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21571,7 +21571,7 @@
         <v>44896</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21628,7 +21628,7 @@
         <v>45540.64366898148</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21685,7 +21685,7 @@
         <v>44949.35385416666</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21742,7 +21742,7 @@
         <v>45357.30267361111</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21799,7 +21799,7 @@
         <v>45565.84452546296</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21856,7 +21856,7 @@
         <v>45093</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
         <v>45202.58068287037</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21970,7 +21970,7 @@
         <v>45317.41827546297</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22027,7 +22027,7 @@
         <v>45404.35048611111</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22084,7 +22084,7 @@
         <v>44979.48650462963</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22141,7 +22141,7 @@
         <v>45667.58902777778</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22198,7 +22198,7 @@
         <v>45782.48217592593</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22255,7 +22255,7 @@
         <v>45782.49773148148</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22312,7 +22312,7 @@
         <v>45782.64012731481</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22369,7 +22369,7 @@
         <v>45782.60745370371</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22426,7 +22426,7 @@
         <v>45782.64457175926</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         <v>45782.65953703703</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22540,7 +22540,7 @@
         <v>45782.47664351852</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22597,7 +22597,7 @@
         <v>45782.63564814815</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22654,7 +22654,7 @@
         <v>45247</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22711,7 +22711,7 @@
         <v>45792.62280092593</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22768,7 +22768,7 @@
         <v>45793.57041666667</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
         <v>45793.29298611111</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22882,7 +22882,7 @@
         <v>45793.60377314815</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>45793.29696759259</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         <v>45793.58547453704</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23053,7 +23053,7 @@
         <v>45797.61721064815</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23110,7 +23110,7 @@
         <v>45797.60491898148</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23167,7 +23167,7 @@
         <v>45797.60896990741</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23224,7 +23224,7 @@
         <v>45310.56167824074</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23281,7 +23281,7 @@
         <v>45800.29532407408</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23338,7 +23338,7 @@
         <v>45803.60685185185</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
